--- a/src/test/resources/init-data/per-diem-2014.xlsx
+++ b/src/test/resources/init-data/per-diem-2014.xlsx
@@ -12803,8 +12803,8 @@
   <dimension ref="A1:L262"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A253" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L4" sqref="L4:L262"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12890,8 +12890,8 @@
         <v>12</v>
       </c>
       <c r="L4" t="str">
-        <f>"INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (" &amp; B4&amp;""&amp; TEXT(A4, "000#") &amp; ", " &amp; B4 &amp; ", '" &amp; C4 &amp; "', " &amp; SUBSTITUTE(TEXT(E4,"#,#0"),",",".") &amp; ", " &amp; SUBSTITUTE(TEXT(F4,"#,#0"),",",".")  &amp; ", " &amp; SUBSTITUTE(TEXT(G4,"#,#0"),",",".") &amp; ", " &amp; SUBSTITUTE(TEXT(I6,"#,#0"),",",".") &amp; ", " &amp; SUBSTITUTE(TEXT(J4,"#,#0"),",",".") &amp; ", " &amp; SUBSTITUTE(TEXT(K4,"#,#0"),",",".") &amp; ");"</f>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150001, 2015, 'Afghanistan', 20.0, 30.0, 95.0, 7.80, 12.0, 12.0);</v>
+        <f t="shared" ref="L4:L40" si="0">"INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (" &amp; B4&amp;""&amp; TEXT(A4, "000#") &amp; ", " &amp; B4 &amp; ", '" &amp; C4 &amp; "', " &amp; SUBSTITUTE(TEXT(E4,"#,#0"),",",".") &amp; ", " &amp; SUBSTITUTE(TEXT(F4,"#,#0"),",",".")  &amp; ", " &amp; SUBSTITUTE(TEXT(G4,"#,#0"),",",".") &amp; ", " &amp; SUBSTITUTE(TEXT(I4,"#,#0"),",",".") &amp; ", " &amp; SUBSTITUTE(TEXT(J4,"#,#0"),",",".") &amp; ", " &amp; SUBSTITUTE(TEXT(K4,"#,#0"),",",".") &amp; ");"</f>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150001, 2015, 'Afghanistan', 20.0, 30.0, 95.0, 6.0, 12.0, 12.0);</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -12917,20 +12917,20 @@
         <v>110</v>
       </c>
       <c r="I5">
-        <f t="shared" ref="I5:I68" si="0">F5*0.2</f>
+        <f t="shared" ref="I5:I68" si="1">F5*0.2</f>
         <v>4.6000000000000005</v>
       </c>
       <c r="J5">
-        <f t="shared" ref="J5:J68" si="1">F5*0.4</f>
+        <f t="shared" ref="J5:J68" si="2">F5*0.4</f>
         <v>9.2000000000000011</v>
       </c>
       <c r="K5">
-        <f t="shared" ref="K5:K68" si="2">F5*0.4</f>
+        <f t="shared" ref="K5:K68" si="3">F5*0.4</f>
         <v>9.2000000000000011</v>
       </c>
       <c r="L5" t="str">
-        <f t="shared" ref="L5:L68" si="3">"INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (" &amp; B5&amp;""&amp; TEXT(A5, "000#") &amp; ", " &amp; B5 &amp; ", '" &amp; C5 &amp; "', " &amp; SUBSTITUTE(TEXT(E5,"#,#0"),",",".") &amp; ", " &amp; SUBSTITUTE(TEXT(F5,"#,#0"),",",".")  &amp; ", " &amp; SUBSTITUTE(TEXT(G5,"#,#0"),",",".") &amp; ", " &amp; SUBSTITUTE(TEXT(I7,"#,#0"),",",".") &amp; ", " &amp; SUBSTITUTE(TEXT(J5,"#,#0"),",",".") &amp; ", " &amp; SUBSTITUTE(TEXT(K5,"#,#0"),",",".") &amp; ");"</f>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150002, 2015, 'Albanien', 16.0, 23.0, 110.0, 6.40, 9.20, 9.20);</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150002, 2015, 'Albanien', 16.0, 23.0, 110.0, 4.60, 9.20, 9.20);</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -12956,20 +12956,20 @@
         <v>190</v>
       </c>
       <c r="I6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.8000000000000007</v>
       </c>
       <c r="J6">
-        <f t="shared" si="1"/>
-        <v>15.600000000000001</v>
-      </c>
-      <c r="K6">
         <f t="shared" si="2"/>
         <v>15.600000000000001</v>
       </c>
+      <c r="K6">
+        <f t="shared" si="3"/>
+        <v>15.600000000000001</v>
+      </c>
       <c r="L6" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150003, 2015, 'Algerien', 26.0, 39.0, 190.0, 15.40, 15.60, 15.60);</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150003, 2015, 'Algerien', 26.0, 39.0, 190.0, 7.80, 15.60, 15.60);</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -12995,20 +12995,20 @@
         <v>82</v>
       </c>
       <c r="I7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.4</v>
       </c>
       <c r="J7">
-        <f t="shared" si="1"/>
-        <v>12.8</v>
-      </c>
-      <c r="K7">
         <f t="shared" si="2"/>
         <v>12.8</v>
       </c>
+      <c r="K7">
+        <f t="shared" si="3"/>
+        <v>12.8</v>
+      </c>
       <c r="L7" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150004, 2015, 'Andorra', 21.0, 32.0, 82.0, 10.60, 12.80, 12.80);</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150004, 2015, 'Andorra', 21.0, 32.0, 82.0, 6.40, 12.80, 12.80);</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -13034,20 +13034,20 @@
         <v>265</v>
       </c>
       <c r="I8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15.4</v>
       </c>
       <c r="J8">
-        <f t="shared" si="1"/>
-        <v>30.8</v>
-      </c>
-      <c r="K8">
         <f t="shared" si="2"/>
         <v>30.8</v>
       </c>
+      <c r="K8">
+        <f t="shared" si="3"/>
+        <v>30.8</v>
+      </c>
       <c r="L8" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150005, 2015, 'Angola', 52.0, 77.0, 265.0, 6.80, 30.80, 30.80);</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150005, 2015, 'Angola', 52.0, 77.0, 265.0, 15.40, 30.80, 30.80);</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -13073,20 +13073,20 @@
         <v>117</v>
       </c>
       <c r="I9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.600000000000001</v>
       </c>
       <c r="J9">
-        <f t="shared" si="1"/>
-        <v>21.200000000000003</v>
-      </c>
-      <c r="K9">
         <f t="shared" si="2"/>
         <v>21.200000000000003</v>
       </c>
+      <c r="K9">
+        <f t="shared" si="3"/>
+        <v>21.200000000000003</v>
+      </c>
       <c r="L9" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150006, 2015, 'Antigua und Barbuda', 36.0, 53.0, 117.0, 4.60, 21.20, 21.20);</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150006, 2015, 'Antigua und Barbuda', 36.0, 53.0, 117.0, 10.60, 21.20, 21.20);</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -13112,20 +13112,20 @@
         <v>144</v>
       </c>
       <c r="I10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.8000000000000007</v>
       </c>
       <c r="J10">
-        <f t="shared" si="1"/>
-        <v>13.600000000000001</v>
-      </c>
-      <c r="K10">
         <f t="shared" si="2"/>
         <v>13.600000000000001</v>
       </c>
+      <c r="K10">
+        <f t="shared" si="3"/>
+        <v>13.600000000000001</v>
+      </c>
       <c r="L10" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150007, 2015, 'Argentinien', 23.0, 34.0, 144.0, 8.0, 13.60, 13.60);</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150007, 2015, 'Argentinien', 23.0, 34.0, 144.0, 6.80, 13.60, 13.60);</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -13151,20 +13151,20 @@
         <v>63</v>
       </c>
       <c r="I11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.6000000000000005</v>
       </c>
       <c r="J11">
-        <f t="shared" si="1"/>
-        <v>9.2000000000000011</v>
-      </c>
-      <c r="K11">
         <f t="shared" si="2"/>
         <v>9.2000000000000011</v>
       </c>
+      <c r="K11">
+        <f t="shared" si="3"/>
+        <v>9.2000000000000011</v>
+      </c>
       <c r="L11" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150008, 2015, 'Armenien', 16.0, 23.0, 63.0, 11.20, 9.20, 9.20);</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150008, 2015, 'Armenien', 16.0, 23.0, 63.0, 4.60, 9.20, 9.20);</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -13190,20 +13190,20 @@
         <v>120</v>
       </c>
       <c r="I12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="J12">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="K12">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
+      <c r="K12">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
       <c r="L12" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150009, 2015, 'Aserbaidschan', 27.0, 40.0, 120.0, 11.60, 16.0, 16.0);</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150009, 2015, 'Aserbaidschan', 27.0, 40.0, 120.0, 8.0, 16.0, 16.0);</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -13229,19 +13229,19 @@
         <v>133</v>
       </c>
       <c r="I13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.200000000000001</v>
       </c>
       <c r="J13">
-        <f t="shared" si="1"/>
-        <v>22.400000000000002</v>
-      </c>
-      <c r="K13">
         <f t="shared" si="2"/>
         <v>22.400000000000002</v>
       </c>
+      <c r="K13">
+        <f t="shared" si="3"/>
+        <v>22.400000000000002</v>
+      </c>
       <c r="L13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150010, 2015, 'Australien', 37.0, 56.0, 133.0, 11.20, 22.40, 22.40);</v>
       </c>
     </row>
@@ -13268,20 +13268,20 @@
         <v>158</v>
       </c>
       <c r="I14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.600000000000001</v>
       </c>
       <c r="J14">
-        <f t="shared" si="1"/>
-        <v>23.200000000000003</v>
-      </c>
-      <c r="K14">
         <f t="shared" si="2"/>
         <v>23.200000000000003</v>
       </c>
+      <c r="K14">
+        <f t="shared" si="3"/>
+        <v>23.200000000000003</v>
+      </c>
       <c r="L14" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150011, 2015, 'Australien-Canberra', 39.0, 58.0, 158.0, 11.80, 23.20, 23.20);</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150011, 2015, 'Australien-Canberra', 39.0, 58.0, 158.0, 11.60, 23.20, 23.20);</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -13307,20 +13307,20 @@
         <v>133</v>
       </c>
       <c r="I15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.200000000000001</v>
       </c>
       <c r="J15">
-        <f t="shared" si="1"/>
-        <v>22.400000000000002</v>
-      </c>
-      <c r="K15">
         <f t="shared" si="2"/>
         <v>22.400000000000002</v>
       </c>
+      <c r="K15">
+        <f t="shared" si="3"/>
+        <v>22.400000000000002</v>
+      </c>
       <c r="L15" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150012, 2015, 'Australien-Melbourne', 37.0, 56.0, 133.0, 7.80, 22.40, 22.40);</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150012, 2015, 'Australien-Melbourne', 37.0, 56.0, 133.0, 11.20, 22.40, 22.40);</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -13346,20 +13346,20 @@
         <v>186</v>
       </c>
       <c r="I16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.8</v>
       </c>
       <c r="J16">
-        <f t="shared" si="1"/>
-        <v>23.6</v>
-      </c>
-      <c r="K16">
         <f t="shared" si="2"/>
         <v>23.6</v>
       </c>
+      <c r="K16">
+        <f t="shared" si="3"/>
+        <v>23.6</v>
+      </c>
       <c r="L16" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150013, 2015, 'Australien-Sydney', 40.0, 59.0, 186.0, 7.20, 23.60, 23.60);</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150013, 2015, 'Australien-Sydney', 40.0, 59.0, 186.0, 11.80, 23.60, 23.60);</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -13385,20 +13385,20 @@
         <v>87</v>
       </c>
       <c r="I17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.8000000000000007</v>
       </c>
       <c r="J17">
-        <f t="shared" si="1"/>
-        <v>15.600000000000001</v>
-      </c>
-      <c r="K17">
         <f t="shared" si="2"/>
         <v>15.600000000000001</v>
       </c>
+      <c r="K17">
+        <f t="shared" si="3"/>
+        <v>15.600000000000001</v>
+      </c>
       <c r="L17" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150014, 2015, 'Bahamas', 26.0, 39.0, 87.0, 6.0, 15.60, 15.60);</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150014, 2015, 'Bahamas', 26.0, 39.0, 87.0, 7.80, 15.60, 15.60);</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -13424,20 +13424,20 @@
         <v>70</v>
       </c>
       <c r="I18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.2</v>
       </c>
       <c r="J18">
-        <f t="shared" si="1"/>
-        <v>14.4</v>
-      </c>
-      <c r="K18">
         <f t="shared" si="2"/>
         <v>14.4</v>
       </c>
+      <c r="K18">
+        <f t="shared" si="3"/>
+        <v>14.4</v>
+      </c>
       <c r="L18" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150015, 2015, 'Bahrain', 24.0, 36.0, 70.0, 11.60, 14.40, 14.40);</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150015, 2015, 'Bahrain', 24.0, 36.0, 70.0, 7.20, 14.40, 14.40);</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -13463,20 +13463,20 @@
         <v>111</v>
       </c>
       <c r="I19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="J19">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="K19">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
+      <c r="K19">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
       <c r="L19" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150016, 2015, 'Bangladesch', 20.0, 30.0, 111.0, 8.20, 12.0, 12.0);</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150016, 2015, 'Bangladesch', 20.0, 30.0, 111.0, 6.0, 12.0, 12.0);</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -13502,20 +13502,20 @@
         <v>179</v>
       </c>
       <c r="I20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.600000000000001</v>
       </c>
       <c r="J20">
-        <f t="shared" si="1"/>
-        <v>23.200000000000003</v>
-      </c>
-      <c r="K20">
         <f t="shared" si="2"/>
         <v>23.200000000000003</v>
       </c>
+      <c r="K20">
+        <f t="shared" si="3"/>
+        <v>23.200000000000003</v>
+      </c>
       <c r="L20" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150017, 2015, 'Barbados', 39.0, 58.0, 179.0, 8.0, 23.20, 23.20);</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150017, 2015, 'Barbados', 39.0, 58.0, 179.0, 11.60, 23.20, 23.20);</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -13541,20 +13541,20 @@
         <v>135</v>
       </c>
       <c r="I21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.2000000000000011</v>
       </c>
       <c r="J21">
-        <f t="shared" si="1"/>
-        <v>16.400000000000002</v>
-      </c>
-      <c r="K21">
         <f t="shared" si="2"/>
         <v>16.400000000000002</v>
       </c>
+      <c r="K21">
+        <f t="shared" si="3"/>
+        <v>16.400000000000002</v>
+      </c>
       <c r="L21" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150018, 2015, 'Belgien', 28.0, 41.0, 135.0, 4.80, 16.40, 16.40);</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150018, 2015, 'Belgien', 28.0, 41.0, 135.0, 8.20, 16.40, 16.40);</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -13580,20 +13580,20 @@
         <v>101</v>
       </c>
       <c r="I22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="J22">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="K22">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
+      <c r="K22">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
       <c r="L22" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150019, 2015, 'Benin', 27.0, 40.0, 101.0, 3.60, 16.0, 16.0);</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150019, 2015, 'Benin', 27.0, 40.0, 101.0, 8.0, 16.0, 16.0);</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -13619,20 +13619,20 @@
         <v>70</v>
       </c>
       <c r="I23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.8000000000000007</v>
       </c>
       <c r="J23">
-        <f t="shared" si="1"/>
-        <v>9.6000000000000014</v>
-      </c>
-      <c r="K23">
         <f t="shared" si="2"/>
         <v>9.6000000000000014</v>
       </c>
+      <c r="K23">
+        <f t="shared" si="3"/>
+        <v>9.6000000000000014</v>
+      </c>
       <c r="L23" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150020, 2015, 'Bolivien', 16.0, 24.0, 70.0, 6.60, 9.60, 9.60);</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150020, 2015, 'Bolivien', 16.0, 24.0, 70.0, 4.80, 9.60, 9.60);</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -13658,20 +13658,20 @@
         <v>73</v>
       </c>
       <c r="I24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.6</v>
       </c>
       <c r="J24">
-        <f t="shared" si="1"/>
-        <v>7.2</v>
-      </c>
-      <c r="K24">
         <f t="shared" si="2"/>
         <v>7.2</v>
       </c>
+      <c r="K24">
+        <f t="shared" si="3"/>
+        <v>7.2</v>
+      </c>
       <c r="L24" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150021, 2015, 'Bosnien-Herzegowina', 12.0, 18.0, 73.0, 10.80, 7.20, 7.20);</v>
+        <f>"INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (" &amp; B24&amp;""&amp; TEXT(A24, "000#") &amp; ", " &amp; B24 &amp; ", '" &amp; C24 &amp; "', " &amp; SUBSTITUTE(TEXT(E24,"#,#0"),",",".") &amp; ", " &amp; SUBSTITUTE(TEXT(F24,"#,#0"),",",".")  &amp; ", " &amp; SUBSTITUTE(TEXT(G24,"#,#0"),",",".") &amp; ", " &amp; SUBSTITUTE(TEXT(I24,"#,#0"),",",".") &amp; ", " &amp; SUBSTITUTE(TEXT(J24,"#,#0"),",",".") &amp; ", " &amp; SUBSTITUTE(TEXT(K24,"#,#0"),",",".") &amp; ");"</f>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150021, 2015, 'Bosnien-Herzegowina', 12.0, 18.0, 73.0, 3.60, 7.20, 7.20);</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -13697,20 +13697,20 @@
         <v>105</v>
       </c>
       <c r="I25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.6000000000000005</v>
       </c>
       <c r="J25">
-        <f t="shared" si="1"/>
-        <v>13.200000000000001</v>
-      </c>
-      <c r="K25">
         <f t="shared" si="2"/>
         <v>13.200000000000001</v>
       </c>
+      <c r="K25">
+        <f t="shared" si="3"/>
+        <v>13.200000000000001</v>
+      </c>
       <c r="L25" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150022, 2015, 'Botsuana', 22.0, 33.0, 105.0, 10.60, 13.20, 13.20);</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150022, 2015, 'Botsuana', 22.0, 33.0, 105.0, 6.60, 13.20, 13.20);</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -13736,20 +13736,20 @@
         <v>110</v>
       </c>
       <c r="I26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.8</v>
       </c>
       <c r="J26">
-        <f t="shared" si="1"/>
-        <v>21.6</v>
-      </c>
-      <c r="K26">
         <f t="shared" si="2"/>
         <v>21.6</v>
       </c>
+      <c r="K26">
+        <f t="shared" si="3"/>
+        <v>21.6</v>
+      </c>
       <c r="L26" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150023, 2015, 'Brasilien', 36.0, 54.0, 110.0, 9.40, 21.60, 21.60);</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150023, 2015, 'Brasilien', 36.0, 54.0, 110.0, 10.80, 21.60, 21.60);</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -13775,19 +13775,19 @@
         <v>160</v>
       </c>
       <c r="I27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.600000000000001</v>
       </c>
       <c r="J27">
-        <f t="shared" si="1"/>
-        <v>21.200000000000003</v>
-      </c>
-      <c r="K27">
         <f t="shared" si="2"/>
         <v>21.200000000000003</v>
       </c>
+      <c r="K27">
+        <f t="shared" si="3"/>
+        <v>21.200000000000003</v>
+      </c>
       <c r="L27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150024, 2015, 'Brasilien-Brasilia', 36.0, 53.0, 160.0, 10.60, 21.20, 21.20);</v>
       </c>
     </row>
@@ -13814,20 +13814,20 @@
         <v>145</v>
       </c>
       <c r="I28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.4</v>
       </c>
       <c r="J28">
-        <f t="shared" si="1"/>
-        <v>18.8</v>
-      </c>
-      <c r="K28">
         <f t="shared" si="2"/>
         <v>18.8</v>
       </c>
+      <c r="K28">
+        <f t="shared" si="3"/>
+        <v>18.8</v>
+      </c>
       <c r="L28" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150025, 2015, 'Brasilien-Rio de Janeiro', 32.0, 47.0, 145.0, 9.60, 18.80, 18.80);</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150025, 2015, 'Brasilien-Rio de Janeiro', 32.0, 47.0, 145.0, 9.40, 18.80, 18.80);</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -13853,20 +13853,20 @@
         <v>120</v>
       </c>
       <c r="I29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.600000000000001</v>
       </c>
       <c r="J29">
-        <f t="shared" si="1"/>
-        <v>21.200000000000003</v>
-      </c>
-      <c r="K29">
         <f t="shared" si="2"/>
         <v>21.200000000000003</v>
       </c>
+      <c r="K29">
+        <f t="shared" si="3"/>
+        <v>21.200000000000003</v>
+      </c>
       <c r="L29" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150026, 2015, 'Brasilien-Sao Paulo', 36.0, 53.0, 120.0, 4.40, 21.20, 21.20);</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150026, 2015, 'Brasilien-Sao Paulo', 36.0, 53.0, 120.0, 10.60, 21.20, 21.20);</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -13892,20 +13892,20 @@
         <v>106</v>
       </c>
       <c r="I30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.6000000000000014</v>
       </c>
       <c r="J30">
-        <f t="shared" si="1"/>
-        <v>19.200000000000003</v>
-      </c>
-      <c r="K30">
         <f t="shared" si="2"/>
         <v>19.200000000000003</v>
       </c>
+      <c r="K30">
+        <f t="shared" si="3"/>
+        <v>19.200000000000003</v>
+      </c>
       <c r="L30" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150027, 2015, 'Brunei Darussalam', 32.0, 48.0, 106.0, 8.80, 19.20, 19.20);</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150027, 2015, 'Brunei Darussalam', 32.0, 48.0, 106.0, 9.60, 19.20, 19.20);</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -13931,20 +13931,20 @@
         <v>90</v>
       </c>
       <c r="I31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="J31">
-        <f t="shared" si="1"/>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="K31">
         <f t="shared" si="2"/>
         <v>8.8000000000000007</v>
       </c>
+      <c r="K31">
+        <f t="shared" si="3"/>
+        <v>8.8000000000000007</v>
+      </c>
       <c r="L31" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150028, 2015, 'Bulgarien', 15.0, 22.0, 90.0, 9.40, 8.80, 8.80);</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150028, 2015, 'Bulgarien', 15.0, 22.0, 90.0, 4.40, 8.80, 8.80);</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -13970,20 +13970,20 @@
         <v>84</v>
       </c>
       <c r="I32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.8000000000000007</v>
       </c>
       <c r="J32">
-        <f t="shared" si="1"/>
-        <v>17.600000000000001</v>
-      </c>
-      <c r="K32">
         <f t="shared" si="2"/>
         <v>17.600000000000001</v>
       </c>
+      <c r="K32">
+        <f t="shared" si="3"/>
+        <v>17.600000000000001</v>
+      </c>
       <c r="L32" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150029, 2015, 'Burkina Faso', 29.0, 44.0, 84.0, 8.0, 17.60, 17.60);</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150029, 2015, 'Burkina Faso', 29.0, 44.0, 84.0, 8.80, 17.60, 17.60);</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -14009,20 +14009,20 @@
         <v>98</v>
       </c>
       <c r="I33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.4</v>
       </c>
       <c r="J33">
-        <f t="shared" si="1"/>
-        <v>18.8</v>
-      </c>
-      <c r="K33">
         <f t="shared" si="2"/>
         <v>18.8</v>
       </c>
+      <c r="K33">
+        <f t="shared" si="3"/>
+        <v>18.8</v>
+      </c>
       <c r="L33" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150030, 2015, 'Burundi', 32.0, 47.0, 98.0, 6.60, 18.80, 18.80);</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150030, 2015, 'Burundi', 32.0, 47.0, 98.0, 9.40, 18.80, 18.80);</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -14048,20 +14048,20 @@
         <v>130</v>
       </c>
       <c r="I34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="J34">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="K34">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
+      <c r="K34">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
       <c r="L34" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150031, 2015, 'Chile', 27.0, 40.0, 130.0, 6.40, 16.0, 16.0);</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150031, 2015, 'Chile', 27.0, 40.0, 130.0, 8.0, 16.0, 16.0);</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -14087,20 +14087,20 @@
         <v>80</v>
       </c>
       <c r="I35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.6000000000000005</v>
       </c>
       <c r="J35">
-        <f t="shared" si="1"/>
-        <v>13.200000000000001</v>
-      </c>
-      <c r="K35">
         <f t="shared" si="2"/>
         <v>13.200000000000001</v>
       </c>
+      <c r="K35">
+        <f t="shared" si="3"/>
+        <v>13.200000000000001</v>
+      </c>
       <c r="L35" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150032, 2015, 'China', 22.0, 33.0, 80.0, 12.40, 13.20, 13.20);</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150032, 2015, 'China', 22.0, 33.0, 80.0, 6.60, 13.20, 13.20);</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -14126,20 +14126,20 @@
         <v>85</v>
       </c>
       <c r="I36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.4</v>
       </c>
       <c r="J36">
-        <f t="shared" si="1"/>
-        <v>12.8</v>
-      </c>
-      <c r="K36">
         <f t="shared" si="2"/>
         <v>12.8</v>
       </c>
+      <c r="K36">
+        <f t="shared" si="3"/>
+        <v>12.8</v>
+      </c>
       <c r="L36" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150033, 2015, 'China-Chengdu', 21.0, 32.0, 85.0, 7.80, 12.80, 12.80);</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150033, 2015, 'China-Chengdu', 21.0, 32.0, 85.0, 6.40, 12.80, 12.80);</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -14165,20 +14165,20 @@
         <v>170</v>
       </c>
       <c r="I37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12.4</v>
       </c>
       <c r="J37">
-        <f t="shared" si="1"/>
-        <v>24.8</v>
-      </c>
-      <c r="K37">
         <f t="shared" si="2"/>
         <v>24.8</v>
       </c>
+      <c r="K37">
+        <f t="shared" si="3"/>
+        <v>24.8</v>
+      </c>
       <c r="L37" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150034, 2015, 'China-Hongkong', 41.0, 62.0, 170.0, 8.40, 24.80, 24.80);</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150034, 2015, 'China-Hongkong', 41.0, 62.0, 170.0, 12.40, 24.80, 24.80);</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -14204,20 +14204,20 @@
         <v>115</v>
       </c>
       <c r="I38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.8000000000000007</v>
       </c>
       <c r="J38">
-        <f t="shared" si="1"/>
-        <v>15.600000000000001</v>
-      </c>
-      <c r="K38">
         <f t="shared" si="2"/>
         <v>15.600000000000001</v>
       </c>
+      <c r="K38">
+        <f t="shared" si="3"/>
+        <v>15.600000000000001</v>
+      </c>
       <c r="L38" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150035, 2015, 'China-Peking', 26.0, 39.0, 115.0, 7.20, 15.60, 15.60);</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150035, 2015, 'China-Peking', 26.0, 39.0, 115.0, 7.80, 15.60, 15.60);</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -14243,20 +14243,20 @@
         <v>140</v>
       </c>
       <c r="I39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.4</v>
       </c>
       <c r="J39">
-        <f t="shared" si="1"/>
-        <v>16.8</v>
-      </c>
-      <c r="K39">
         <f t="shared" si="2"/>
         <v>16.8</v>
       </c>
+      <c r="K39">
+        <f t="shared" si="3"/>
+        <v>16.8</v>
+      </c>
       <c r="L39" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150036, 2015, 'China-Shanghai', 28.0, 42.0, 140.0, 4.80, 16.80, 16.80);</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150036, 2015, 'China-Shanghai', 28.0, 42.0, 140.0, 8.40, 16.80, 16.80);</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -14282,20 +14282,20 @@
         <v>69</v>
       </c>
       <c r="I40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.2</v>
       </c>
       <c r="J40">
-        <f t="shared" si="1"/>
-        <v>14.4</v>
-      </c>
-      <c r="K40">
         <f t="shared" si="2"/>
         <v>14.4</v>
       </c>
+      <c r="K40">
+        <f t="shared" si="3"/>
+        <v>14.4</v>
+      </c>
       <c r="L40" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150037, 2015, 'Costa Rica', 24.0, 36.0, 69.0, 8.0, 14.40, 14.40);</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150037, 2015, 'Costa Rica', 24.0, 36.0, 69.0, 7.20, 14.40, 14.40);</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -14321,20 +14321,20 @@
         <v>20</v>
       </c>
       <c r="I41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.8000000000000007</v>
       </c>
       <c r="J41">
-        <f t="shared" si="1"/>
-        <v>9.6000000000000014</v>
-      </c>
-      <c r="K41">
         <f t="shared" si="2"/>
         <v>9.6000000000000014</v>
       </c>
+      <c r="K41">
+        <f t="shared" si="3"/>
+        <v>9.6000000000000014</v>
+      </c>
       <c r="L41" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150038, 2015, 'Deutschland', 12.0, 24.0, 20.0, 8.0, 9.60, 9.60);</v>
+        <f>"INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (" &amp; B41&amp;""&amp; TEXT(A41, "000#") &amp; ", " &amp; B41 &amp; ", '" &amp; C41 &amp; "', " &amp; SUBSTITUTE(TEXT(E41,"#,#0"),",",".") &amp; ", " &amp; SUBSTITUTE(TEXT(F41,"#,#0"),",",".")  &amp; ", " &amp; SUBSTITUTE(TEXT(G41,"#,#0"),",",".") &amp; ", " &amp; SUBSTITUTE(TEXT(I41,"#,#0"),",",".") &amp; ", " &amp; SUBSTITUTE(TEXT(J41,"#,#0"),",",".") &amp; ", " &amp; SUBSTITUTE(TEXT(K41,"#,#0"),",",".") &amp; ");"</f>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150038, 2015, 'Deutschland', 12.0, 24.0, 20.0, 4.80, 9.60, 9.60);</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -14360,20 +14360,20 @@
         <v>94</v>
       </c>
       <c r="I42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="J42">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="K42">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
+      <c r="K42">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
       <c r="L42" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150039, 2015, 'Dominica', 27.0, 40.0, 94.0, 9.60, 16.0, 16.0);</v>
+        <f t="shared" ref="L42:L105" si="4">"INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (" &amp; B42&amp;""&amp; TEXT(A42, "000#") &amp; ", " &amp; B42 &amp; ", '" &amp; C42 &amp; "', " &amp; SUBSTITUTE(TEXT(E42,"#,#0"),",",".") &amp; ", " &amp; SUBSTITUTE(TEXT(F42,"#,#0"),",",".")  &amp; ", " &amp; SUBSTITUTE(TEXT(G42,"#,#0"),",",".") &amp; ", " &amp; SUBSTITUTE(TEXT(I42,"#,#0"),",",".") &amp; ", " &amp; SUBSTITUTE(TEXT(J42,"#,#0"),",",".") &amp; ", " &amp; SUBSTITUTE(TEXT(K42,"#,#0"),",",".") &amp; ");"</f>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150039, 2015, 'Dominica', 27.0, 40.0, 94.0, 8.0, 16.0, 16.0);</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -14399,20 +14399,20 @@
         <v>71</v>
       </c>
       <c r="I43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="J43">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="K43">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
+      <c r="K43">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
       <c r="L43" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150040, 2015, 'Dominikanische Rep.', 27.0, 40.0, 71.0, 12.0, 16.0, 16.0);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150040, 2015, 'Dominikanische Rep.', 27.0, 40.0, 71.0, 8.0, 16.0, 16.0);</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -14438,20 +14438,20 @@
         <v>160</v>
       </c>
       <c r="I44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.6000000000000014</v>
       </c>
       <c r="J44">
-        <f t="shared" si="1"/>
-        <v>19.200000000000003</v>
-      </c>
-      <c r="K44">
         <f t="shared" si="2"/>
         <v>19.200000000000003</v>
       </c>
+      <c r="K44">
+        <f t="shared" si="3"/>
+        <v>19.200000000000003</v>
+      </c>
       <c r="L44" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150041, 2015, 'Dschibuti', 32.0, 48.0, 160.0, 12.0, 19.20, 19.20);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150041, 2015, 'Dschibuti', 32.0, 48.0, 160.0, 9.60, 19.20, 19.20);</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -14477,20 +14477,20 @@
         <v>150</v>
       </c>
       <c r="I45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="J45">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="K45">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
+      <c r="K45">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
       <c r="L45" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150042, 2015, 'Dänemark', 40.0, 60.0, 150.0, 7.80, 24.0, 24.0);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150042, 2015, 'Dänemark', 40.0, 60.0, 150.0, 12.0, 24.0, 24.0);</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -14516,20 +14516,20 @@
         <v>150</v>
       </c>
       <c r="I46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="J46">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="K46">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
+      <c r="K46">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
       <c r="L46" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150043, 2015, 'Dänemark-Kopenhagen', 40.0, 60.0, 150.0, 9.20, 24.0, 24.0);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150043, 2015, 'Dänemark-Kopenhagen', 40.0, 60.0, 150.0, 12.0, 24.0, 24.0);</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -14555,20 +14555,20 @@
         <v>55</v>
       </c>
       <c r="I47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.8000000000000007</v>
       </c>
       <c r="J47">
-        <f t="shared" si="1"/>
-        <v>15.600000000000001</v>
-      </c>
-      <c r="K47">
         <f t="shared" si="2"/>
         <v>15.600000000000001</v>
       </c>
+      <c r="K47">
+        <f t="shared" si="3"/>
+        <v>15.600000000000001</v>
+      </c>
       <c r="L47" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150044, 2015, 'Ecuador', 26.0, 39.0, 55.0, 10.20, 15.60, 15.60);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150044, 2015, 'Ecuador', 26.0, 39.0, 55.0, 7.80, 15.60, 15.60);</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -14594,20 +14594,20 @@
         <v>75</v>
       </c>
       <c r="I48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.2000000000000011</v>
       </c>
       <c r="J48">
-        <f t="shared" si="1"/>
-        <v>18.400000000000002</v>
-      </c>
-      <c r="K48">
         <f t="shared" si="2"/>
         <v>18.400000000000002</v>
       </c>
+      <c r="K48">
+        <f t="shared" si="3"/>
+        <v>18.400000000000002</v>
+      </c>
       <c r="L48" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150045, 2015, 'El Salvador', 31.0, 46.0, 75.0, 6.0, 18.40, 18.40);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150045, 2015, 'El Salvador', 31.0, 46.0, 75.0, 9.20, 18.40, 18.40);</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -14633,20 +14633,20 @@
         <v>146</v>
       </c>
       <c r="I49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.200000000000001</v>
       </c>
       <c r="J49">
-        <f t="shared" si="1"/>
-        <v>20.400000000000002</v>
-      </c>
-      <c r="K49">
         <f t="shared" si="2"/>
         <v>20.400000000000002</v>
       </c>
+      <c r="K49">
+        <f t="shared" si="3"/>
+        <v>20.400000000000002</v>
+      </c>
       <c r="L49" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150046, 2015, 'Elfenbeinküste', 34.0, 51.0, 146.0, 5.40, 20.40, 20.40);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150046, 2015, 'Elfenbeinküste', 34.0, 51.0, 146.0, 10.20, 20.40, 20.40);</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -14672,20 +14672,20 @@
         <v>58</v>
       </c>
       <c r="I50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="J50">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="K50">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
+      <c r="K50">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
       <c r="L50" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150047, 2015, 'Eritrea', 20.0, 30.0, 58.0, 6.40, 12.0, 12.0);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150047, 2015, 'Eritrea', 20.0, 30.0, 58.0, 6.0, 12.0, 12.0);</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -14711,20 +14711,20 @@
         <v>71</v>
       </c>
       <c r="I51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.4</v>
       </c>
       <c r="J51">
-        <f t="shared" si="1"/>
-        <v>10.8</v>
-      </c>
-      <c r="K51">
         <f t="shared" si="2"/>
         <v>10.8</v>
       </c>
+      <c r="K51">
+        <f t="shared" si="3"/>
+        <v>10.8</v>
+      </c>
       <c r="L51" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150048, 2015, 'Estland', 18.0, 27.0, 71.0, 7.80, 10.80, 10.80);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150048, 2015, 'Estland', 18.0, 27.0, 71.0, 5.40, 10.80, 10.80);</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -14750,20 +14750,20 @@
         <v>57</v>
       </c>
       <c r="I52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.4</v>
       </c>
       <c r="J52">
-        <f t="shared" si="1"/>
-        <v>12.8</v>
-      </c>
-      <c r="K52">
         <f t="shared" si="2"/>
         <v>12.8</v>
       </c>
+      <c r="K52">
+        <f t="shared" si="3"/>
+        <v>12.8</v>
+      </c>
       <c r="L52" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150049, 2015, 'Fidschi', 21.0, 32.0, 57.0, 8.80, 12.80, 12.80);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150049, 2015, 'Fidschi', 21.0, 32.0, 57.0, 6.40, 12.80, 12.80);</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -14789,20 +14789,20 @@
         <v>136</v>
       </c>
       <c r="I53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.8000000000000007</v>
       </c>
       <c r="J53">
-        <f t="shared" si="1"/>
-        <v>15.600000000000001</v>
-      </c>
-      <c r="K53">
         <f t="shared" si="2"/>
         <v>15.600000000000001</v>
       </c>
+      <c r="K53">
+        <f t="shared" si="3"/>
+        <v>15.600000000000001</v>
+      </c>
       <c r="L53" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150050, 2015, 'Finnland', 26.0, 39.0, 136.0, 8.80, 15.60, 15.60);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150050, 2015, 'Finnland', 26.0, 39.0, 136.0, 7.80, 15.60, 15.60);</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -14828,20 +14828,20 @@
         <v>81</v>
       </c>
       <c r="I54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.8000000000000007</v>
       </c>
       <c r="J54">
-        <f t="shared" si="1"/>
-        <v>17.600000000000001</v>
-      </c>
-      <c r="K54">
         <f t="shared" si="2"/>
         <v>17.600000000000001</v>
       </c>
+      <c r="K54">
+        <f t="shared" si="3"/>
+        <v>17.600000000000001</v>
+      </c>
       <c r="L54" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150051, 2015, 'Frankreich', 29.0, 44.0, 81.0, 10.60, 17.60, 17.60);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150051, 2015, 'Frankreich', 29.0, 44.0, 81.0, 8.80, 17.60, 17.60);</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -14867,20 +14867,20 @@
         <v>81</v>
       </c>
       <c r="I55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.8000000000000007</v>
       </c>
       <c r="J55">
-        <f t="shared" si="1"/>
-        <v>17.600000000000001</v>
-      </c>
-      <c r="K55">
         <f t="shared" si="2"/>
         <v>17.600000000000001</v>
       </c>
+      <c r="K55">
+        <f t="shared" si="3"/>
+        <v>17.600000000000001</v>
+      </c>
       <c r="L55" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150052, 2015, 'Frankreich-Bordeaux', 29.0, 44.0, 81.0, 10.20, 17.60, 17.60);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150052, 2015, 'Frankreich-Bordeaux', 29.0, 44.0, 81.0, 8.80, 17.60, 17.60);</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -14906,20 +14906,20 @@
         <v>83</v>
       </c>
       <c r="I56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.600000000000001</v>
       </c>
       <c r="J56">
-        <f t="shared" si="1"/>
-        <v>21.200000000000003</v>
-      </c>
-      <c r="K56">
         <f t="shared" si="2"/>
         <v>21.200000000000003</v>
       </c>
+      <c r="K56">
+        <f t="shared" si="3"/>
+        <v>21.200000000000003</v>
+      </c>
       <c r="L56" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150053, 2015, 'Frankreich-Lyon', 36.0, 53.0, 83.0, 11.60, 21.20, 21.20);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150053, 2015, 'Frankreich-Lyon', 36.0, 53.0, 83.0, 10.60, 21.20, 21.20);</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -14945,20 +14945,20 @@
         <v>86</v>
       </c>
       <c r="I57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.200000000000001</v>
       </c>
       <c r="J57">
-        <f t="shared" si="1"/>
-        <v>20.400000000000002</v>
-      </c>
-      <c r="K57">
         <f t="shared" si="2"/>
         <v>20.400000000000002</v>
       </c>
+      <c r="K57">
+        <f t="shared" si="3"/>
+        <v>20.400000000000002</v>
+      </c>
       <c r="L57" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150054, 2015, 'Frankreich-Marseille', 34.0, 51.0, 86.0, 9.60, 20.40, 20.40);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150054, 2015, 'Frankreich-Marseille', 34.0, 51.0, 86.0, 10.20, 20.40, 20.40);</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -14984,20 +14984,20 @@
         <v>135</v>
       </c>
       <c r="I58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.600000000000001</v>
       </c>
       <c r="J58">
-        <f t="shared" si="1"/>
-        <v>23.200000000000003</v>
-      </c>
-      <c r="K58">
         <f t="shared" si="2"/>
         <v>23.200000000000003</v>
       </c>
+      <c r="K58">
+        <f t="shared" si="3"/>
+        <v>23.200000000000003</v>
+      </c>
       <c r="L58" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150055, 2015, 'Frankreich-Paris', 39.0, 58.0, 135.0, 12.40, 23.20, 23.20);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150055, 2015, 'Frankreich-Paris', 39.0, 58.0, 135.0, 11.60, 23.20, 23.20);</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -15023,20 +15023,20 @@
         <v>89</v>
       </c>
       <c r="I59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.6000000000000014</v>
       </c>
       <c r="J59">
-        <f t="shared" si="1"/>
-        <v>19.200000000000003</v>
-      </c>
-      <c r="K59">
         <f t="shared" si="2"/>
         <v>19.200000000000003</v>
       </c>
+      <c r="K59">
+        <f t="shared" si="3"/>
+        <v>19.200000000000003</v>
+      </c>
       <c r="L59" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150056, 2015, 'Frankreich-Straßburg', 32.0, 48.0, 89.0, 3.60, 19.20, 19.20);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150056, 2015, 'Frankreich-Straßburg', 32.0, 48.0, 89.0, 9.60, 19.20, 19.20);</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -15062,20 +15062,20 @@
         <v>278</v>
       </c>
       <c r="I60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12.4</v>
       </c>
       <c r="J60">
-        <f t="shared" si="1"/>
-        <v>24.8</v>
-      </c>
-      <c r="K60">
         <f t="shared" si="2"/>
         <v>24.8</v>
       </c>
+      <c r="K60">
+        <f t="shared" si="3"/>
+        <v>24.8</v>
+      </c>
       <c r="L60" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150057, 2015, 'Gabun', 41.0, 62.0, 278.0, 6.0, 24.80, 24.80);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150057, 2015, 'Gabun', 41.0, 62.0, 278.0, 12.40, 24.80, 24.80);</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -15101,20 +15101,20 @@
         <v>70</v>
       </c>
       <c r="I61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.6</v>
       </c>
       <c r="J61">
-        <f t="shared" si="1"/>
-        <v>7.2</v>
-      </c>
-      <c r="K61">
         <f t="shared" si="2"/>
         <v>7.2</v>
       </c>
+      <c r="K61">
+        <f t="shared" si="3"/>
+        <v>7.2</v>
+      </c>
       <c r="L61" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150058, 2015, 'Gambia', 12.0, 18.0, 70.0, 9.20, 7.20, 7.20);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150058, 2015, 'Gambia', 12.0, 18.0, 70.0, 3.60, 7.20, 7.20);</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -15140,20 +15140,20 @@
         <v>80</v>
       </c>
       <c r="I62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="J62">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="K62">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
+      <c r="K62">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
       <c r="L62" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150059, 2015, 'Georgien', 20.0, 30.0, 80.0, 10.20, 12.0, 12.0);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150059, 2015, 'Georgien', 20.0, 30.0, 80.0, 6.0, 12.0, 12.0);</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -15179,20 +15179,20 @@
         <v>174</v>
       </c>
       <c r="I63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.2000000000000011</v>
       </c>
       <c r="J63">
-        <f t="shared" si="1"/>
-        <v>18.400000000000002</v>
-      </c>
-      <c r="K63">
         <f t="shared" si="2"/>
         <v>18.400000000000002</v>
       </c>
+      <c r="K63">
+        <f t="shared" si="3"/>
+        <v>18.400000000000002</v>
+      </c>
       <c r="L63" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150060, 2015, 'Ghana', 31.0, 46.0, 174.0, 8.40, 18.40, 18.40);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150060, 2015, 'Ghana', 31.0, 46.0, 174.0, 9.20, 18.40, 18.40);</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -15218,20 +15218,20 @@
         <v>121</v>
       </c>
       <c r="I64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.200000000000001</v>
       </c>
       <c r="J64">
-        <f t="shared" si="1"/>
-        <v>20.400000000000002</v>
-      </c>
-      <c r="K64">
         <f t="shared" si="2"/>
         <v>20.400000000000002</v>
       </c>
+      <c r="K64">
+        <f t="shared" si="3"/>
+        <v>20.400000000000002</v>
+      </c>
       <c r="L64" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150061, 2015, 'Grenada', 34.0, 51.0, 121.0, 11.40, 20.40, 20.40);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150061, 2015, 'Grenada', 34.0, 51.0, 121.0, 10.20, 20.40, 20.40);</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -15257,19 +15257,19 @@
         <v>132</v>
       </c>
       <c r="I65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.4</v>
       </c>
       <c r="J65">
-        <f t="shared" si="1"/>
-        <v>16.8</v>
-      </c>
-      <c r="K65">
         <f t="shared" si="2"/>
         <v>16.8</v>
       </c>
+      <c r="K65">
+        <f t="shared" si="3"/>
+        <v>16.8</v>
+      </c>
       <c r="L65" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150062, 2015, 'Griechenland', 28.0, 42.0, 132.0, 8.40, 16.80, 16.80);</v>
       </c>
     </row>
@@ -15296,20 +15296,20 @@
         <v>125</v>
       </c>
       <c r="I66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.4</v>
       </c>
       <c r="J66">
-        <f t="shared" si="1"/>
-        <v>22.8</v>
-      </c>
-      <c r="K66">
         <f t="shared" si="2"/>
         <v>22.8</v>
       </c>
+      <c r="K66">
+        <f t="shared" si="3"/>
+        <v>22.8</v>
+      </c>
       <c r="L66" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150063, 2015, 'Griechenland-Athen', 38.0, 57.0, 125.0, 8.40, 22.80, 22.80);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150063, 2015, 'Griechenland-Athen', 38.0, 57.0, 125.0, 11.40, 22.80, 22.80);</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -15335,20 +15335,20 @@
         <v>119</v>
       </c>
       <c r="I67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.4</v>
       </c>
       <c r="J67">
-        <f t="shared" si="1"/>
-        <v>16.8</v>
-      </c>
-      <c r="K67">
         <f t="shared" si="2"/>
         <v>16.8</v>
       </c>
+      <c r="K67">
+        <f t="shared" si="3"/>
+        <v>16.8</v>
+      </c>
       <c r="L67" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150064, 2015, 'Großbritannien', 28.0, 42.0, 119.0, 11.40, 16.80, 16.80);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150064, 2015, 'Großbritannien', 28.0, 42.0, 119.0, 8.40, 16.80, 16.80);</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -15374,19 +15374,19 @@
         <v>119</v>
       </c>
       <c r="I68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.4</v>
       </c>
       <c r="J68">
-        <f t="shared" si="1"/>
-        <v>16.8</v>
-      </c>
-      <c r="K68">
         <f t="shared" si="2"/>
         <v>16.8</v>
       </c>
+      <c r="K68">
+        <f t="shared" si="3"/>
+        <v>16.8</v>
+      </c>
       <c r="L68" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150065, 2015, 'Großbritannien-Edinburgh', 28.0, 42.0, 119.0, 8.40, 16.80, 16.80);</v>
       </c>
     </row>
@@ -15413,20 +15413,20 @@
         <v>160</v>
       </c>
       <c r="I69">
-        <f t="shared" ref="I69:I132" si="4">F69*0.2</f>
+        <f t="shared" ref="I69:I132" si="5">F69*0.2</f>
         <v>11.4</v>
       </c>
       <c r="J69">
-        <f t="shared" ref="J69:J132" si="5">F69*0.4</f>
+        <f t="shared" ref="J69:J132" si="6">F69*0.4</f>
         <v>22.8</v>
       </c>
       <c r="K69">
-        <f t="shared" ref="K69:K132" si="6">F69*0.4</f>
+        <f t="shared" ref="K69:K132" si="7">F69*0.4</f>
         <v>22.8</v>
       </c>
       <c r="L69" t="str">
-        <f t="shared" ref="L69:L132" si="7">"INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (" &amp; B69&amp;""&amp; TEXT(A69, "000#") &amp; ", " &amp; B69 &amp; ", '" &amp; C69 &amp; "', " &amp; SUBSTITUTE(TEXT(E69,"#,#0"),",",".") &amp; ", " &amp; SUBSTITUTE(TEXT(F69,"#,#0"),",",".")  &amp; ", " &amp; SUBSTITUTE(TEXT(G69,"#,#0"),",",".") &amp; ", " &amp; SUBSTITUTE(TEXT(I71,"#,#0"),",",".") &amp; ", " &amp; SUBSTITUTE(TEXT(J69,"#,#0"),",",".") &amp; ", " &amp; SUBSTITUTE(TEXT(K69,"#,#0"),",",".") &amp; ");"</f>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150066, 2015, 'Großbritannien-London', 38.0, 57.0, 160.0, 5.60, 22.80, 22.80);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150066, 2015, 'Großbritannien-London', 38.0, 57.0, 160.0, 11.40, 22.80, 22.80);</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -15452,20 +15452,20 @@
         <v>119</v>
       </c>
       <c r="I70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.4</v>
       </c>
       <c r="J70">
-        <f t="shared" si="5"/>
-        <v>16.8</v>
-      </c>
-      <c r="K70">
         <f t="shared" si="6"/>
         <v>16.8</v>
       </c>
+      <c r="K70">
+        <f t="shared" si="7"/>
+        <v>16.8</v>
+      </c>
       <c r="L70" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150067, 2015, 'Großbritannien-Manchester', 28.0, 42.0, 119.0, 7.60, 16.80, 16.80);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150067, 2015, 'Großbritannien-Manchester', 28.0, 42.0, 119.0, 8.40, 16.80, 16.80);</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -15491,20 +15491,20 @@
         <v>96</v>
       </c>
       <c r="I71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.6000000000000005</v>
       </c>
       <c r="J71">
-        <f t="shared" si="5"/>
-        <v>11.200000000000001</v>
-      </c>
-      <c r="K71">
         <f t="shared" si="6"/>
         <v>11.200000000000001</v>
       </c>
+      <c r="K71">
+        <f t="shared" si="7"/>
+        <v>11.200000000000001</v>
+      </c>
       <c r="L71" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150068, 2015, 'Guatemala', 19.0, 28.0, 96.0, 6.0, 11.20, 11.20);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150068, 2015, 'Guatemala', 19.0, 28.0, 96.0, 5.60, 11.20, 11.20);</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -15530,20 +15530,20 @@
         <v>110</v>
       </c>
       <c r="I72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.6000000000000005</v>
       </c>
       <c r="J72">
-        <f t="shared" si="5"/>
-        <v>15.200000000000001</v>
-      </c>
-      <c r="K72">
         <f t="shared" si="6"/>
         <v>15.200000000000001</v>
       </c>
+      <c r="K72">
+        <f t="shared" si="7"/>
+        <v>15.200000000000001</v>
+      </c>
       <c r="L72" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150069, 2015, 'Guinea', 25.0, 38.0, 110.0, 8.20, 15.20, 15.20);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150069, 2015, 'Guinea', 25.0, 38.0, 110.0, 7.60, 15.20, 15.20);</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -15569,20 +15569,20 @@
         <v>60</v>
       </c>
       <c r="I73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="J73">
-        <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="K73">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
+      <c r="K73">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
       <c r="L73" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150070, 2015, 'Guinea-Bissau', 20.0, 30.0, 60.0, 10.0, 12.0, 12.0);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150070, 2015, 'Guinea-Bissau', 20.0, 30.0, 60.0, 6.0, 12.0, 12.0);</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -15608,20 +15608,20 @@
         <v>81</v>
       </c>
       <c r="I74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.2000000000000011</v>
       </c>
       <c r="J74">
-        <f t="shared" si="5"/>
-        <v>16.400000000000002</v>
-      </c>
-      <c r="K74">
         <f t="shared" si="6"/>
         <v>16.400000000000002</v>
       </c>
+      <c r="K74">
+        <f t="shared" si="7"/>
+        <v>16.400000000000002</v>
+      </c>
       <c r="L74" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150071, 2015, 'Guyana', 28.0, 41.0, 81.0, 8.80, 16.40, 16.40);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150071, 2015, 'Guyana', 28.0, 41.0, 81.0, 8.20, 16.40, 16.40);</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -15647,20 +15647,20 @@
         <v>111</v>
       </c>
       <c r="I75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J75">
-        <f t="shared" si="5"/>
-        <v>20</v>
-      </c>
-      <c r="K75">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
+      <c r="K75">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
       <c r="L75" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150072, 2015, 'Haiti', 33.0, 50.0, 111.0, 6.0, 20.0, 20.0);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150072, 2015, 'Haiti', 33.0, 50.0, 111.0, 10.0, 20.0, 20.0);</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -15686,20 +15686,20 @@
         <v>104</v>
       </c>
       <c r="I76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.8000000000000007</v>
       </c>
       <c r="J76">
-        <f t="shared" si="5"/>
-        <v>17.600000000000001</v>
-      </c>
-      <c r="K76">
         <f t="shared" si="6"/>
         <v>17.600000000000001</v>
       </c>
+      <c r="K76">
+        <f t="shared" si="7"/>
+        <v>17.600000000000001</v>
+      </c>
       <c r="L76" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150073, 2015, 'Honduras', 29.0, 44.0, 104.0, 7.0, 17.60, 17.60);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150073, 2015, 'Honduras', 29.0, 44.0, 104.0, 8.80, 17.60, 17.60);</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -15725,19 +15725,19 @@
         <v>120</v>
       </c>
       <c r="I77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="J77">
-        <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="K77">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
+      <c r="K77">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
       <c r="L77" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150074, 2015, 'Indien', 20.0, 30.0, 120.0, 6.0, 12.0, 12.0);</v>
       </c>
     </row>
@@ -15764,20 +15764,20 @@
         <v>150</v>
       </c>
       <c r="I78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="J78">
-        <f t="shared" si="5"/>
-        <v>14</v>
-      </c>
-      <c r="K78">
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
+      <c r="K78">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
       <c r="L78" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150075, 2015, 'Indien-Bombay', 24.0, 35.0, 150.0, 6.60, 14.0, 14.0);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150075, 2015, 'Indien-Bombay', 24.0, 35.0, 150.0, 7.0, 14.0, 14.0);</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -15803,20 +15803,20 @@
         <v>135</v>
       </c>
       <c r="I79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="J79">
-        <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="K79">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
+      <c r="K79">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
       <c r="L79" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150076, 2015, 'Indien-Chennai', 20.0, 30.0, 135.0, 7.0, 12.0, 12.0);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150076, 2015, 'Indien-Chennai', 20.0, 30.0, 135.0, 6.0, 12.0, 12.0);</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -15842,20 +15842,20 @@
         <v>120</v>
       </c>
       <c r="I80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.6000000000000005</v>
       </c>
       <c r="J80">
-        <f t="shared" si="5"/>
-        <v>13.200000000000001</v>
-      </c>
-      <c r="K80">
         <f t="shared" si="6"/>
         <v>13.200000000000001</v>
       </c>
+      <c r="K80">
+        <f t="shared" si="7"/>
+        <v>13.200000000000001</v>
+      </c>
       <c r="L80" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150077, 2015, 'Indien-Kalkutta', 22.0, 33.0, 120.0, 7.0, 13.20, 13.20);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150077, 2015, 'Indien-Kalkutta', 22.0, 33.0, 120.0, 6.60, 13.20, 13.20);</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
@@ -15881,20 +15881,20 @@
         <v>150</v>
       </c>
       <c r="I81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="J81">
-        <f t="shared" si="5"/>
-        <v>14</v>
-      </c>
-      <c r="K81">
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
+      <c r="K81">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
       <c r="L81" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150078, 2015, 'Indien-Mumbai', 24.0, 35.0, 150.0, 7.60, 14.0, 14.0);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150078, 2015, 'Indien-Mumbai', 24.0, 35.0, 150.0, 7.0, 14.0, 14.0);</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
@@ -15920,20 +15920,20 @@
         <v>130</v>
       </c>
       <c r="I82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="J82">
-        <f t="shared" si="5"/>
-        <v>14</v>
-      </c>
-      <c r="K82">
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
+      <c r="K82">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
       <c r="L82" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150079, 2015, 'Indien-Neu Delhi', 24.0, 35.0, 130.0, 7.80, 14.0, 14.0);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150079, 2015, 'Indien-Neu Delhi', 24.0, 35.0, 130.0, 7.0, 14.0, 14.0);</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
@@ -15959,20 +15959,20 @@
         <v>130</v>
       </c>
       <c r="I83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.6000000000000005</v>
       </c>
       <c r="J83">
-        <f t="shared" si="5"/>
-        <v>15.200000000000001</v>
-      </c>
-      <c r="K83">
         <f t="shared" si="6"/>
         <v>15.200000000000001</v>
       </c>
+      <c r="K83">
+        <f t="shared" si="7"/>
+        <v>15.200000000000001</v>
+      </c>
       <c r="L83" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150080, 2015, 'Indonesien', 25.0, 38.0, 130.0, 5.60, 15.20, 15.20);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150080, 2015, 'Indonesien', 25.0, 38.0, 130.0, 7.60, 15.20, 15.20);</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
@@ -15998,20 +15998,20 @@
         <v>87</v>
       </c>
       <c r="I84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.8000000000000007</v>
       </c>
       <c r="J84">
-        <f t="shared" si="5"/>
-        <v>15.600000000000001</v>
-      </c>
-      <c r="K84">
         <f t="shared" si="6"/>
         <v>15.600000000000001</v>
       </c>
+      <c r="K84">
+        <f t="shared" si="7"/>
+        <v>15.600000000000001</v>
+      </c>
       <c r="L84" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150081, 2015, 'Irak', 26.0, 39.0, 87.0, 8.40, 15.60, 15.60);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150081, 2015, 'Irak', 26.0, 39.0, 87.0, 7.80, 15.60, 15.60);</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
@@ -16037,20 +16037,20 @@
         <v>84</v>
       </c>
       <c r="I85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.6000000000000005</v>
       </c>
       <c r="J85">
-        <f t="shared" si="5"/>
-        <v>11.200000000000001</v>
-      </c>
-      <c r="K85">
         <f t="shared" si="6"/>
         <v>11.200000000000001</v>
       </c>
+      <c r="K85">
+        <f t="shared" si="7"/>
+        <v>11.200000000000001</v>
+      </c>
       <c r="L85" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150082, 2015, 'Iran', 19.0, 28.0, 84.0, 9.40, 11.20, 11.20);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150082, 2015, 'Iran', 19.0, 28.0, 84.0, 5.60, 11.20, 11.20);</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
@@ -16076,20 +16076,20 @@
         <v>90</v>
       </c>
       <c r="I86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.4</v>
       </c>
       <c r="J86">
-        <f t="shared" si="5"/>
-        <v>16.8</v>
-      </c>
-      <c r="K86">
         <f t="shared" si="6"/>
         <v>16.8</v>
       </c>
+      <c r="K86">
+        <f t="shared" si="7"/>
+        <v>16.8</v>
+      </c>
       <c r="L86" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150083, 2015, 'Irland', 28.0, 42.0, 90.0, 11.80, 16.80, 16.80);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150083, 2015, 'Irland', 28.0, 42.0, 90.0, 8.40, 16.80, 16.80);</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
@@ -16115,20 +16115,20 @@
         <v>108</v>
       </c>
       <c r="I87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.4</v>
       </c>
       <c r="J87">
-        <f t="shared" si="5"/>
-        <v>18.8</v>
-      </c>
-      <c r="K87">
         <f t="shared" si="6"/>
         <v>18.8</v>
       </c>
+      <c r="K87">
+        <f t="shared" si="7"/>
+        <v>18.8</v>
+      </c>
       <c r="L87" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150084, 2015, 'Island', 32.0, 47.0, 108.0, 9.0, 18.80, 18.80);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150084, 2015, 'Island', 32.0, 47.0, 108.0, 9.40, 18.80, 18.80);</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
@@ -16154,20 +16154,20 @@
         <v>175</v>
       </c>
       <c r="I88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>11.8</v>
       </c>
       <c r="J88">
-        <f t="shared" si="5"/>
-        <v>23.6</v>
-      </c>
-      <c r="K88">
         <f t="shared" si="6"/>
         <v>23.6</v>
       </c>
+      <c r="K88">
+        <f t="shared" si="7"/>
+        <v>23.6</v>
+      </c>
       <c r="L88" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150085, 2015, 'Israel', 40.0, 59.0, 175.0, 6.80, 23.60, 23.60);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150085, 2015, 'Israel', 40.0, 59.0, 175.0, 11.80, 23.60, 23.60);</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
@@ -16193,20 +16193,20 @@
         <v>110</v>
       </c>
       <c r="I89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="J89">
-        <f t="shared" si="5"/>
-        <v>18</v>
-      </c>
-      <c r="K89">
         <f t="shared" si="6"/>
         <v>18</v>
       </c>
+      <c r="K89">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
       <c r="L89" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150086, 2015, 'Israel-Tel Aviv', 30.0, 45.0, 110.0, 7.80, 18.0, 18.0);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150086, 2015, 'Israel-Tel Aviv', 30.0, 45.0, 110.0, 9.0, 18.0, 18.0);</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
@@ -16232,20 +16232,20 @@
         <v>126</v>
       </c>
       <c r="I90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.8000000000000007</v>
       </c>
       <c r="J90">
-        <f t="shared" si="5"/>
-        <v>13.600000000000001</v>
-      </c>
-      <c r="K90">
         <f t="shared" si="6"/>
         <v>13.600000000000001</v>
       </c>
+      <c r="K90">
+        <f t="shared" si="7"/>
+        <v>13.600000000000001</v>
+      </c>
       <c r="L90" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150087, 2015, 'Italien', 23.0, 34.0, 126.0, 10.40, 13.60, 13.60);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150087, 2015, 'Italien', 23.0, 34.0, 126.0, 6.80, 13.60, 13.60);</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
@@ -16271,20 +16271,20 @@
         <v>156</v>
       </c>
       <c r="I91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.8000000000000007</v>
       </c>
       <c r="J91">
-        <f t="shared" si="5"/>
-        <v>15.600000000000001</v>
-      </c>
-      <c r="K91">
         <f t="shared" si="6"/>
         <v>15.600000000000001</v>
       </c>
+      <c r="K91">
+        <f t="shared" si="7"/>
+        <v>15.600000000000001</v>
+      </c>
       <c r="L91" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150088, 2015, 'Italien-Mailand', 26.0, 39.0, 156.0, 10.80, 15.60, 15.60);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150088, 2015, 'Italien-Mailand', 26.0, 39.0, 156.0, 7.80, 15.60, 15.60);</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
@@ -16310,20 +16310,20 @@
         <v>160</v>
       </c>
       <c r="I92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10.4</v>
       </c>
       <c r="J92">
-        <f t="shared" si="5"/>
-        <v>20.8</v>
-      </c>
-      <c r="K92">
         <f t="shared" si="6"/>
         <v>20.8</v>
       </c>
+      <c r="K92">
+        <f t="shared" si="7"/>
+        <v>20.8</v>
+      </c>
       <c r="L92" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150089, 2015, 'Italien-Rom', 35.0, 52.0, 160.0, 10.20, 20.80, 20.80);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150089, 2015, 'Italien-Rom', 35.0, 52.0, 160.0, 10.40, 20.80, 20.80);</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
@@ -16349,20 +16349,20 @@
         <v>135</v>
       </c>
       <c r="I93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10.8</v>
       </c>
       <c r="J93">
-        <f t="shared" si="5"/>
-        <v>21.6</v>
-      </c>
-      <c r="K93">
         <f t="shared" si="6"/>
         <v>21.6</v>
       </c>
+      <c r="K93">
+        <f t="shared" si="7"/>
+        <v>21.6</v>
+      </c>
       <c r="L93" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150090, 2015, 'Jamaika', 36.0, 54.0, 135.0, 10.60, 21.60, 21.60);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150090, 2015, 'Jamaika', 36.0, 54.0, 135.0, 10.80, 21.60, 21.60);</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
@@ -16388,20 +16388,20 @@
         <v>156</v>
       </c>
       <c r="I94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10.200000000000001</v>
       </c>
       <c r="J94">
-        <f t="shared" si="5"/>
-        <v>20.400000000000002</v>
-      </c>
-      <c r="K94">
         <f t="shared" si="6"/>
         <v>20.400000000000002</v>
       </c>
+      <c r="K94">
+        <f t="shared" si="7"/>
+        <v>20.400000000000002</v>
+      </c>
       <c r="L94" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150091, 2015, 'Japan', 34.0, 51.0, 156.0, 4.80, 20.40, 20.40);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150091, 2015, 'Japan', 34.0, 51.0, 156.0, 10.20, 20.40, 20.40);</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
@@ -16427,20 +16427,20 @@
         <v>153</v>
       </c>
       <c r="I95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10.600000000000001</v>
       </c>
       <c r="J95">
-        <f t="shared" si="5"/>
-        <v>21.200000000000003</v>
-      </c>
-      <c r="K95">
         <f t="shared" si="6"/>
         <v>21.200000000000003</v>
       </c>
+      <c r="K95">
+        <f t="shared" si="7"/>
+        <v>21.200000000000003</v>
+      </c>
       <c r="L95" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150092, 2015, 'Japan-Tokio', 36.0, 53.0, 153.0, 7.20, 21.20, 21.20);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150092, 2015, 'Japan-Tokio', 36.0, 53.0, 153.0, 10.60, 21.20, 21.20);</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
@@ -16466,20 +16466,20 @@
         <v>95</v>
       </c>
       <c r="I96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.8000000000000007</v>
       </c>
       <c r="J96">
-        <f t="shared" si="5"/>
-        <v>9.6000000000000014</v>
-      </c>
-      <c r="K96">
         <f t="shared" si="6"/>
         <v>9.6000000000000014</v>
       </c>
+      <c r="K96">
+        <f t="shared" si="7"/>
+        <v>9.6000000000000014</v>
+      </c>
       <c r="L96" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150093, 2015, 'Jemen', 16.0, 24.0, 95.0, 7.20, 9.60, 9.60);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150093, 2015, 'Jemen', 16.0, 24.0, 95.0, 4.80, 9.60, 9.60);</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
@@ -16505,20 +16505,20 @@
         <v>85</v>
       </c>
       <c r="I97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.2</v>
       </c>
       <c r="J97">
-        <f t="shared" si="5"/>
-        <v>14.4</v>
-      </c>
-      <c r="K97">
         <f t="shared" si="6"/>
         <v>14.4</v>
       </c>
+      <c r="K97">
+        <f t="shared" si="7"/>
+        <v>14.4</v>
+      </c>
       <c r="L97" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150094, 2015, 'Jordanien', 24.0, 36.0, 85.0, 8.0, 14.40, 14.40);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150094, 2015, 'Jordanien', 24.0, 36.0, 85.0, 7.20, 14.40, 14.40);</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
@@ -16544,20 +16544,20 @@
         <v>85</v>
       </c>
       <c r="I98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.2</v>
       </c>
       <c r="J98">
-        <f t="shared" si="5"/>
-        <v>14.4</v>
-      </c>
-      <c r="K98">
         <f t="shared" si="6"/>
         <v>14.4</v>
       </c>
+      <c r="K98">
+        <f t="shared" si="7"/>
+        <v>14.4</v>
+      </c>
       <c r="L98" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150095, 2015, 'Kambodscha', 24.0, 36.0, 85.0, 8.0, 14.40, 14.40);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150095, 2015, 'Kambodscha', 24.0, 36.0, 85.0, 7.20, 14.40, 14.40);</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
@@ -16583,19 +16583,19 @@
         <v>130</v>
       </c>
       <c r="I99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="J99">
-        <f t="shared" si="5"/>
-        <v>16</v>
-      </c>
-      <c r="K99">
         <f t="shared" si="6"/>
         <v>16</v>
       </c>
+      <c r="K99">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
       <c r="L99" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150096, 2015, 'Kamerun', 27.0, 40.0, 130.0, 8.0, 16.0, 16.0);</v>
       </c>
     </row>
@@ -16622,20 +16622,20 @@
         <v>130</v>
       </c>
       <c r="I100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="J100">
-        <f t="shared" si="5"/>
-        <v>16</v>
-      </c>
-      <c r="K100">
         <f t="shared" si="6"/>
         <v>16</v>
       </c>
+      <c r="K100">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
       <c r="L100" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150097, 2015, 'Kamerun-Duala', 27.0, 40.0, 130.0, 7.20, 16.0, 16.0);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150097, 2015, 'Kamerun-Duala', 27.0, 40.0, 130.0, 8.0, 16.0, 16.0);</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
@@ -16661,20 +16661,20 @@
         <v>130</v>
       </c>
       <c r="I101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="J101">
-        <f t="shared" si="5"/>
-        <v>16</v>
-      </c>
-      <c r="K101">
         <f t="shared" si="6"/>
         <v>16</v>
       </c>
+      <c r="K101">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
       <c r="L101" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150098, 2015, 'Kamerun-Jaunde', 27.0, 40.0, 130.0, 7.20, 16.0, 16.0);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150098, 2015, 'Kamerun-Jaunde', 27.0, 40.0, 130.0, 8.0, 16.0, 16.0);</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
@@ -16700,20 +16700,20 @@
         <v>100</v>
       </c>
       <c r="I102">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.2</v>
       </c>
       <c r="J102">
-        <f t="shared" si="5"/>
-        <v>14.4</v>
-      </c>
-      <c r="K102">
         <f t="shared" si="6"/>
         <v>14.4</v>
       </c>
+      <c r="K102">
+        <f t="shared" si="7"/>
+        <v>14.4</v>
+      </c>
       <c r="L102" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150099, 2015, 'Kanada', 24.0, 36.0, 100.0, 8.20, 14.40, 14.40);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150099, 2015, 'Kanada', 24.0, 36.0, 100.0, 7.20, 14.40, 14.40);</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
@@ -16739,19 +16739,19 @@
         <v>105</v>
       </c>
       <c r="I103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.2</v>
       </c>
       <c r="J103">
-        <f t="shared" si="5"/>
-        <v>14.4</v>
-      </c>
-      <c r="K103">
         <f t="shared" si="6"/>
         <v>14.4</v>
       </c>
+      <c r="K103">
+        <f t="shared" si="7"/>
+        <v>14.4</v>
+      </c>
       <c r="L103" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150100, 2015, 'Kanada-Ottawa', 24.0, 36.0, 105.0, 7.20, 14.40, 14.40);</v>
       </c>
     </row>
@@ -16778,20 +16778,20 @@
         <v>135</v>
       </c>
       <c r="I104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.2000000000000011</v>
       </c>
       <c r="J104">
-        <f t="shared" si="5"/>
-        <v>16.400000000000002</v>
-      </c>
-      <c r="K104">
         <f t="shared" si="6"/>
         <v>16.400000000000002</v>
       </c>
+      <c r="K104">
+        <f t="shared" si="7"/>
+        <v>16.400000000000002</v>
+      </c>
       <c r="L104" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150101, 2015, 'Kanada-Toronto', 28.0, 41.0, 135.0, 6.0, 16.40, 16.40);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150101, 2015, 'Kanada-Toronto', 28.0, 41.0, 135.0, 8.20, 16.40, 16.40);</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
@@ -16817,20 +16817,20 @@
         <v>125</v>
       </c>
       <c r="I105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.2</v>
       </c>
       <c r="J105">
-        <f t="shared" si="5"/>
-        <v>14.4</v>
-      </c>
-      <c r="K105">
         <f t="shared" si="6"/>
         <v>14.4</v>
       </c>
+      <c r="K105">
+        <f t="shared" si="7"/>
+        <v>14.4</v>
+      </c>
       <c r="L105" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150102, 2015, 'Kanada-Vancouver', 24.0, 36.0, 125.0, 7.80, 14.40, 14.40);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150102, 2015, 'Kanada-Vancouver', 24.0, 36.0, 125.0, 7.20, 14.40, 14.40);</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
@@ -16856,20 +16856,20 @@
         <v>55</v>
       </c>
       <c r="I106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="J106">
-        <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="K106">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
+      <c r="K106">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
       <c r="L106" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150103, 2015, 'Kap Verde', 20.0, 30.0, 55.0, 11.20, 12.0, 12.0);</v>
+        <f t="shared" ref="L106:L169" si="8">"INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (" &amp; B106&amp;""&amp; TEXT(A106, "000#") &amp; ", " &amp; B106 &amp; ", '" &amp; C106 &amp; "', " &amp; SUBSTITUTE(TEXT(E106,"#,#0"),",",".") &amp; ", " &amp; SUBSTITUTE(TEXT(F106,"#,#0"),",",".")  &amp; ", " &amp; SUBSTITUTE(TEXT(G106,"#,#0"),",",".") &amp; ", " &amp; SUBSTITUTE(TEXT(I106,"#,#0"),",",".") &amp; ", " &amp; SUBSTITUTE(TEXT(J106,"#,#0"),",",".") &amp; ", " &amp; SUBSTITUTE(TEXT(K106,"#,#0"),",",".") &amp; ");"</f>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150103, 2015, 'Kap Verde', 20.0, 30.0, 55.0, 6.0, 12.0, 12.0);</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
@@ -16895,20 +16895,20 @@
         <v>109</v>
       </c>
       <c r="I107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.8000000000000007</v>
       </c>
       <c r="J107">
-        <f t="shared" si="5"/>
-        <v>15.600000000000001</v>
-      </c>
-      <c r="K107">
         <f t="shared" si="6"/>
         <v>15.600000000000001</v>
       </c>
+      <c r="K107">
+        <f t="shared" si="7"/>
+        <v>15.600000000000001</v>
+      </c>
       <c r="L107" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150104, 2015, 'Kasachstan', 26.0, 39.0, 109.0, 7.0, 15.60, 15.60);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150104, 2015, 'Kasachstan', 26.0, 39.0, 109.0, 7.80, 15.60, 15.60);</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
@@ -16934,20 +16934,20 @@
         <v>170</v>
       </c>
       <c r="I108">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>11.200000000000001</v>
       </c>
       <c r="J108">
-        <f t="shared" si="5"/>
-        <v>22.400000000000002</v>
-      </c>
-      <c r="K108">
         <f t="shared" si="6"/>
         <v>22.400000000000002</v>
       </c>
+      <c r="K108">
+        <f t="shared" si="7"/>
+        <v>22.400000000000002</v>
+      </c>
       <c r="L108" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150105, 2015, 'Katar', 37.0, 56.0, 170.0, 5.80, 22.40, 22.40);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150105, 2015, 'Katar', 37.0, 56.0, 170.0, 11.20, 22.40, 22.40);</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
@@ -16973,20 +16973,20 @@
         <v>135</v>
       </c>
       <c r="I109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="J109">
-        <f t="shared" si="5"/>
-        <v>14</v>
-      </c>
-      <c r="K109">
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
+      <c r="K109">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
       <c r="L109" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150106, 2015, 'Kenia', 24.0, 35.0, 135.0, 8.20, 14.0, 14.0);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150106, 2015, 'Kenia', 24.0, 35.0, 135.0, 7.0, 14.0, 14.0);</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
@@ -17012,20 +17012,20 @@
         <v>91</v>
       </c>
       <c r="I110">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.8000000000000007</v>
       </c>
       <c r="J110">
-        <f t="shared" si="5"/>
-        <v>11.600000000000001</v>
-      </c>
-      <c r="K110">
         <f t="shared" si="6"/>
         <v>11.600000000000001</v>
       </c>
+      <c r="K110">
+        <f t="shared" si="7"/>
+        <v>11.600000000000001</v>
+      </c>
       <c r="L110" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150107, 2015, 'Kirgisistan', 20.0, 29.0, 91.0, 7.80, 11.60, 11.60);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150107, 2015, 'Kirgisistan', 20.0, 29.0, 91.0, 5.80, 11.60, 11.60);</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
@@ -17051,20 +17051,20 @@
         <v>126</v>
       </c>
       <c r="I111">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.2000000000000011</v>
       </c>
       <c r="J111">
-        <f t="shared" si="5"/>
-        <v>16.400000000000002</v>
-      </c>
-      <c r="K111">
         <f t="shared" si="6"/>
         <v>16.400000000000002</v>
       </c>
+      <c r="K111">
+        <f t="shared" si="7"/>
+        <v>16.400000000000002</v>
+      </c>
       <c r="L111" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150108, 2015, 'Kolumbien', 28.0, 41.0, 126.0, 12.0, 16.40, 16.40);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150108, 2015, 'Kolumbien', 28.0, 41.0, 126.0, 8.20, 16.40, 16.40);</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
@@ -17090,20 +17090,20 @@
         <v>87</v>
       </c>
       <c r="I112">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.8000000000000007</v>
       </c>
       <c r="J112">
-        <f t="shared" si="5"/>
-        <v>15.600000000000001</v>
-      </c>
-      <c r="K112">
         <f t="shared" si="6"/>
         <v>15.600000000000001</v>
       </c>
+      <c r="K112">
+        <f t="shared" si="7"/>
+        <v>15.600000000000001</v>
+      </c>
       <c r="L112" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150109, 2015, 'Komoren', 26.0, 39.0, 87.0, 11.40, 15.60, 15.60);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150109, 2015, 'Komoren', 26.0, 39.0, 87.0, 7.80, 15.60, 15.60);</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
@@ -17129,20 +17129,20 @@
         <v>155</v>
       </c>
       <c r="I113">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="J113">
-        <f t="shared" si="5"/>
-        <v>24</v>
-      </c>
-      <c r="K113">
         <f t="shared" si="6"/>
         <v>24</v>
       </c>
+      <c r="K113">
+        <f t="shared" si="7"/>
+        <v>24</v>
+      </c>
       <c r="L113" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150110, 2015, 'Kongo Dem. Rep.', 40.0, 60.0, 155.0, 13.20, 24.0, 24.0);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150110, 2015, 'Kongo Dem. Rep.', 40.0, 60.0, 155.0, 12.0, 24.0, 24.0);</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
@@ -17168,20 +17168,20 @@
         <v>113</v>
       </c>
       <c r="I114">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>11.4</v>
       </c>
       <c r="J114">
-        <f t="shared" si="5"/>
-        <v>22.8</v>
-      </c>
-      <c r="K114">
         <f t="shared" si="6"/>
         <v>22.8</v>
       </c>
+      <c r="K114">
+        <f t="shared" si="7"/>
+        <v>22.8</v>
+      </c>
       <c r="L114" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150111, 2015, 'Kongo Republik', 38.0, 57.0, 113.0, 7.80, 22.80, 22.80);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150111, 2015, 'Kongo Republik', 38.0, 57.0, 113.0, 11.40, 22.80, 22.80);</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
@@ -17207,20 +17207,20 @@
         <v>180</v>
       </c>
       <c r="I115">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13.200000000000001</v>
       </c>
       <c r="J115">
-        <f t="shared" si="5"/>
-        <v>26.400000000000002</v>
-      </c>
-      <c r="K115">
         <f t="shared" si="6"/>
         <v>26.400000000000002</v>
       </c>
+      <c r="K115">
+        <f t="shared" si="7"/>
+        <v>26.400000000000002</v>
+      </c>
       <c r="L115" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150112, 2015, 'Korea (Süd)', 44.0, 66.0, 180.0, 5.20, 26.40, 26.40);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150112, 2015, 'Korea (Süd)', 44.0, 66.0, 180.0, 13.20, 26.40, 26.40);</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
@@ -17246,20 +17246,20 @@
         <v>132</v>
       </c>
       <c r="I116">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.8000000000000007</v>
       </c>
       <c r="J116">
-        <f t="shared" si="5"/>
-        <v>15.600000000000001</v>
-      </c>
-      <c r="K116">
         <f t="shared" si="6"/>
         <v>15.600000000000001</v>
       </c>
+      <c r="K116">
+        <f t="shared" si="7"/>
+        <v>15.600000000000001</v>
+      </c>
       <c r="L116" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150113, 2015, 'Korea Dem. Rep. (Nord)', 26.0, 39.0, 132.0, 5.60, 15.60, 15.60);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150113, 2015, 'Korea Dem. Rep. (Nord)', 26.0, 39.0, 132.0, 7.80, 15.60, 15.60);</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
@@ -17285,20 +17285,20 @@
         <v>65</v>
       </c>
       <c r="I117">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.2</v>
       </c>
       <c r="J117">
-        <f t="shared" si="5"/>
-        <v>10.4</v>
-      </c>
-      <c r="K117">
         <f t="shared" si="6"/>
         <v>10.4</v>
       </c>
+      <c r="K117">
+        <f t="shared" si="7"/>
+        <v>10.4</v>
+      </c>
       <c r="L117" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150114, 2015, 'Kosovo', 17.0, 26.0, 65.0, 10.0, 10.40, 10.40);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150114, 2015, 'Kosovo', 17.0, 26.0, 65.0, 5.20, 10.40, 10.40);</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
@@ -17324,20 +17324,20 @@
         <v>75</v>
       </c>
       <c r="I118">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.6000000000000005</v>
       </c>
       <c r="J118">
-        <f t="shared" si="5"/>
-        <v>11.200000000000001</v>
-      </c>
-      <c r="K118">
         <f t="shared" si="6"/>
         <v>11.200000000000001</v>
       </c>
+      <c r="K118">
+        <f t="shared" si="7"/>
+        <v>11.200000000000001</v>
+      </c>
       <c r="L118" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150115, 2015, 'Kroatien', 19.0, 28.0, 75.0, 8.40, 11.20, 11.20);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150115, 2015, 'Kroatien', 19.0, 28.0, 75.0, 5.60, 11.20, 11.20);</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
@@ -17363,20 +17363,20 @@
         <v>85</v>
       </c>
       <c r="I119">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J119">
-        <f t="shared" si="5"/>
-        <v>20</v>
-      </c>
-      <c r="K119">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
+      <c r="K119">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
       <c r="L119" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150116, 2015, 'Kuba', 33.0, 50.0, 85.0, 6.60, 20.0, 20.0);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150116, 2015, 'Kuba', 33.0, 50.0, 85.0, 10.0, 20.0, 20.0);</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
@@ -17402,20 +17402,20 @@
         <v>130</v>
       </c>
       <c r="I120">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.4</v>
       </c>
       <c r="J120">
-        <f t="shared" si="5"/>
-        <v>16.8</v>
-      </c>
-      <c r="K120">
         <f t="shared" si="6"/>
         <v>16.8</v>
       </c>
+      <c r="K120">
+        <f t="shared" si="7"/>
+        <v>16.8</v>
+      </c>
       <c r="L120" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150117, 2015, 'Kuwait', 28.0, 42.0, 130.0, 4.80, 16.80, 16.80);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150117, 2015, 'Kuwait', 28.0, 42.0, 130.0, 8.40, 16.80, 16.80);</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
@@ -17441,20 +17441,20 @@
         <v>67</v>
       </c>
       <c r="I121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.6000000000000005</v>
       </c>
       <c r="J121">
-        <f t="shared" si="5"/>
-        <v>13.200000000000001</v>
-      </c>
-      <c r="K121">
         <f t="shared" si="6"/>
         <v>13.200000000000001</v>
       </c>
+      <c r="K121">
+        <f t="shared" si="7"/>
+        <v>13.200000000000001</v>
+      </c>
       <c r="L121" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150118, 2015, 'Laos', 22.0, 33.0, 67.0, 6.0, 13.20, 13.20);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150118, 2015, 'Laos', 22.0, 33.0, 67.0, 6.60, 13.20, 13.20);</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
@@ -17480,20 +17480,20 @@
         <v>70</v>
       </c>
       <c r="I122">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.8000000000000007</v>
       </c>
       <c r="J122">
-        <f t="shared" si="5"/>
-        <v>9.6000000000000014</v>
-      </c>
-      <c r="K122">
         <f t="shared" si="6"/>
         <v>9.6000000000000014</v>
       </c>
+      <c r="K122">
+        <f t="shared" si="7"/>
+        <v>9.6000000000000014</v>
+      </c>
       <c r="L122" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150119, 2015, 'Lesotho', 16.0, 24.0, 70.0, 8.80, 9.60, 9.60);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150119, 2015, 'Lesotho', 16.0, 24.0, 70.0, 4.80, 9.60, 9.60);</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
@@ -17519,20 +17519,20 @@
         <v>80</v>
       </c>
       <c r="I123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="J123">
-        <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="K123">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
+      <c r="K123">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
       <c r="L123" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150120, 2015, 'Lettland', 20.0, 30.0, 80.0, 7.80, 12.0, 12.0);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150120, 2015, 'Lettland', 20.0, 30.0, 80.0, 6.0, 12.0, 12.0);</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
@@ -17558,20 +17558,20 @@
         <v>120</v>
       </c>
       <c r="I124">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.8000000000000007</v>
       </c>
       <c r="J124">
-        <f t="shared" si="5"/>
-        <v>17.600000000000001</v>
-      </c>
-      <c r="K124">
         <f t="shared" si="6"/>
         <v>17.600000000000001</v>
       </c>
+      <c r="K124">
+        <f t="shared" si="7"/>
+        <v>17.600000000000001</v>
+      </c>
       <c r="L124" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150121, 2015, 'Libanon', 29.0, 44.0, 120.0, 9.0, 17.60, 17.60);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150121, 2015, 'Libanon', 29.0, 44.0, 120.0, 8.80, 17.60, 17.60);</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
@@ -17597,20 +17597,20 @@
         <v>87</v>
       </c>
       <c r="I125">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.8000000000000007</v>
       </c>
       <c r="J125">
-        <f t="shared" si="5"/>
-        <v>15.600000000000001</v>
-      </c>
-      <c r="K125">
         <f t="shared" si="6"/>
         <v>15.600000000000001</v>
       </c>
+      <c r="K125">
+        <f t="shared" si="7"/>
+        <v>15.600000000000001</v>
+      </c>
       <c r="L125" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150122, 2015, 'Liberia', 26.0, 39.0, 87.0, 9.40, 15.60, 15.60);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150122, 2015, 'Liberia', 26.0, 39.0, 87.0, 7.80, 15.60, 15.60);</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
@@ -17636,20 +17636,20 @@
         <v>100</v>
       </c>
       <c r="I126">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="J126">
-        <f t="shared" si="5"/>
-        <v>18</v>
-      </c>
-      <c r="K126">
         <f t="shared" si="6"/>
         <v>18</v>
       </c>
+      <c r="K126">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
       <c r="L126" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150123, 2015, 'Libyen', 30.0, 45.0, 100.0, 4.80, 18.0, 18.0);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150123, 2015, 'Libyen', 30.0, 45.0, 100.0, 9.0, 18.0, 18.0);</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
@@ -17675,20 +17675,20 @@
         <v>82</v>
       </c>
       <c r="I127">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.4</v>
       </c>
       <c r="J127">
-        <f t="shared" si="5"/>
-        <v>18.8</v>
-      </c>
-      <c r="K127">
         <f t="shared" si="6"/>
         <v>18.8</v>
       </c>
+      <c r="K127">
+        <f t="shared" si="7"/>
+        <v>18.8</v>
+      </c>
       <c r="L127" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150124, 2015, 'Liechtenstein', 32.0, 47.0, 82.0, 5.80, 18.80, 18.80);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150124, 2015, 'Liechtenstein', 32.0, 47.0, 82.0, 9.40, 18.80, 18.80);</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
@@ -17714,20 +17714,20 @@
         <v>68</v>
       </c>
       <c r="I128">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.8000000000000007</v>
       </c>
       <c r="J128">
-        <f t="shared" si="5"/>
-        <v>9.6000000000000014</v>
-      </c>
-      <c r="K128">
         <f t="shared" si="6"/>
         <v>9.6000000000000014</v>
       </c>
+      <c r="K128">
+        <f t="shared" si="7"/>
+        <v>9.6000000000000014</v>
+      </c>
       <c r="L128" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150125, 2015, 'Litauen', 16.0, 24.0, 68.0, 9.40, 9.60, 9.60);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150125, 2015, 'Litauen', 16.0, 24.0, 68.0, 4.80, 9.60, 9.60);</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
@@ -17753,20 +17753,20 @@
         <v>0</v>
       </c>
       <c r="I129">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.8000000000000007</v>
       </c>
       <c r="J129">
-        <f t="shared" si="5"/>
-        <v>11.600000000000001</v>
-      </c>
-      <c r="K129">
         <f t="shared" si="6"/>
         <v>11.600000000000001</v>
       </c>
+      <c r="K129">
+        <f t="shared" si="7"/>
+        <v>11.600000000000001</v>
+      </c>
       <c r="L129" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150126, 2015, 'LUFTRAUM', 20.0, 29.0, .0, 7.60, 11.60, 11.60);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150126, 2015, 'LUFTRAUM', 20.0, 29.0, .0, 5.80, 11.60, 11.60);</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
@@ -17792,20 +17792,20 @@
         <v>102</v>
       </c>
       <c r="I130">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.4</v>
       </c>
       <c r="J130">
-        <f t="shared" si="5"/>
-        <v>18.8</v>
-      </c>
-      <c r="K130">
         <f t="shared" si="6"/>
         <v>18.8</v>
       </c>
+      <c r="K130">
+        <f t="shared" si="7"/>
+        <v>18.8</v>
+      </c>
       <c r="L130" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150127, 2015, 'Luxemburg', 32.0, 47.0, 102.0, 7.80, 18.80, 18.80);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150127, 2015, 'Luxemburg', 32.0, 47.0, 102.0, 9.40, 18.80, 18.80);</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
@@ -17831,20 +17831,20 @@
         <v>83</v>
       </c>
       <c r="I131">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.6000000000000005</v>
       </c>
       <c r="J131">
-        <f t="shared" si="5"/>
-        <v>15.200000000000001</v>
-      </c>
-      <c r="K131">
         <f t="shared" si="6"/>
         <v>15.200000000000001</v>
       </c>
+      <c r="K131">
+        <f t="shared" si="7"/>
+        <v>15.200000000000001</v>
+      </c>
       <c r="L131" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150128, 2015, 'Madagaskar', 25.0, 38.0, 83.0, 6.0, 15.20, 15.20);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150128, 2015, 'Madagaskar', 25.0, 38.0, 83.0, 7.60, 15.20, 15.20);</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
@@ -17870,20 +17870,20 @@
         <v>110</v>
       </c>
       <c r="I132">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.8000000000000007</v>
       </c>
       <c r="J132">
-        <f t="shared" si="5"/>
-        <v>15.600000000000001</v>
-      </c>
-      <c r="K132">
         <f t="shared" si="6"/>
         <v>15.600000000000001</v>
       </c>
+      <c r="K132">
+        <f t="shared" si="7"/>
+        <v>15.600000000000001</v>
+      </c>
       <c r="L132" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150129, 2015, 'Malawi', 26.0, 39.0, 110.0, 7.20, 15.60, 15.60);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150129, 2015, 'Malawi', 26.0, 39.0, 110.0, 7.80, 15.60, 15.60);</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
@@ -17909,20 +17909,20 @@
         <v>100</v>
       </c>
       <c r="I133">
-        <f t="shared" ref="I133:I196" si="8">F133*0.2</f>
+        <f t="shared" ref="I133:I196" si="9">F133*0.2</f>
         <v>6</v>
       </c>
       <c r="J133">
-        <f t="shared" ref="J133:J196" si="9">F133*0.4</f>
+        <f t="shared" ref="J133:J196" si="10">F133*0.4</f>
         <v>12</v>
       </c>
       <c r="K133">
-        <f t="shared" ref="K133:K196" si="10">F133*0.4</f>
+        <f t="shared" ref="K133:K196" si="11">F133*0.4</f>
         <v>12</v>
       </c>
       <c r="L133" t="str">
-        <f t="shared" ref="L133:L196" si="11">"INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (" &amp; B133&amp;""&amp; TEXT(A133, "000#") &amp; ", " &amp; B133 &amp; ", '" &amp; C133 &amp; "', " &amp; SUBSTITUTE(TEXT(E133,"#,#0"),",",".") &amp; ", " &amp; SUBSTITUTE(TEXT(F133,"#,#0"),",",".")  &amp; ", " &amp; SUBSTITUTE(TEXT(G133,"#,#0"),",",".") &amp; ", " &amp; SUBSTITUTE(TEXT(I135,"#,#0"),",",".") &amp; ", " &amp; SUBSTITUTE(TEXT(J133,"#,#0"),",",".") &amp; ", " &amp; SUBSTITUTE(TEXT(K133,"#,#0"),",",".") &amp; ");"</f>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150130, 2015, 'Malawi-Biantyre', 20.0, 30.0, 100.0, 7.60, 12.0, 12.0);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150130, 2015, 'Malawi-Biantyre', 20.0, 30.0, 100.0, 6.0, 12.0, 12.0);</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
@@ -17948,20 +17948,20 @@
         <v>100</v>
       </c>
       <c r="I134">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.2</v>
       </c>
       <c r="J134">
-        <f t="shared" si="9"/>
-        <v>14.4</v>
-      </c>
-      <c r="K134">
         <f t="shared" si="10"/>
         <v>14.4</v>
       </c>
+      <c r="K134">
+        <f t="shared" si="11"/>
+        <v>14.4</v>
+      </c>
       <c r="L134" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150131, 2015, 'Malaysia', 24.0, 36.0, 100.0, 8.20, 14.40, 14.40);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150131, 2015, 'Malaysia', 24.0, 36.0, 100.0, 7.20, 14.40, 14.40);</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
@@ -17987,20 +17987,20 @@
         <v>93</v>
       </c>
       <c r="I135">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.6000000000000005</v>
       </c>
       <c r="J135">
-        <f t="shared" si="9"/>
-        <v>15.200000000000001</v>
-      </c>
-      <c r="K135">
         <f t="shared" si="10"/>
         <v>15.200000000000001</v>
       </c>
+      <c r="K135">
+        <f t="shared" si="11"/>
+        <v>15.200000000000001</v>
+      </c>
       <c r="L135" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150132, 2015, 'Malediven', 25.0, 38.0, 93.0, 9.0, 15.20, 15.20);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150132, 2015, 'Malediven', 25.0, 38.0, 93.0, 7.60, 15.20, 15.20);</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
@@ -18026,20 +18026,20 @@
         <v>122</v>
       </c>
       <c r="I136">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8.2000000000000011</v>
       </c>
       <c r="J136">
-        <f t="shared" si="9"/>
-        <v>16.400000000000002</v>
-      </c>
-      <c r="K136">
         <f t="shared" si="10"/>
         <v>16.400000000000002</v>
       </c>
+      <c r="K136">
+        <f t="shared" si="11"/>
+        <v>16.400000000000002</v>
+      </c>
       <c r="L136" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150133, 2015, 'Mali', 28.0, 41.0, 122.0, 8.40, 16.40, 16.40);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150133, 2015, 'Mali', 28.0, 41.0, 122.0, 8.20, 16.40, 16.40);</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
@@ -18065,20 +18065,20 @@
         <v>112</v>
       </c>
       <c r="I137">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="J137">
-        <f t="shared" si="9"/>
-        <v>18</v>
-      </c>
-      <c r="K137">
         <f t="shared" si="10"/>
         <v>18</v>
       </c>
+      <c r="K137">
+        <f t="shared" si="11"/>
+        <v>18</v>
+      </c>
       <c r="L137" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150134, 2015, 'Malta', 30.0, 45.0, 112.0, 12.60, 18.0, 18.0);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150134, 2015, 'Malta', 30.0, 45.0, 112.0, 9.0, 18.0, 18.0);</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
@@ -18104,20 +18104,20 @@
         <v>105</v>
       </c>
       <c r="I138">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8.4</v>
       </c>
       <c r="J138">
-        <f t="shared" si="9"/>
-        <v>16.8</v>
-      </c>
-      <c r="K138">
         <f t="shared" si="10"/>
         <v>16.8</v>
       </c>
+      <c r="K138">
+        <f t="shared" si="11"/>
+        <v>16.8</v>
+      </c>
       <c r="L138" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150135, 2015, 'Marokko', 28.0, 42.0, 105.0, 9.60, 16.80, 16.80);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150135, 2015, 'Marokko', 28.0, 42.0, 105.0, 8.40, 16.80, 16.80);</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
@@ -18143,20 +18143,20 @@
         <v>70</v>
       </c>
       <c r="I139">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>12.600000000000001</v>
       </c>
       <c r="J139">
-        <f t="shared" si="9"/>
-        <v>25.200000000000003</v>
-      </c>
-      <c r="K139">
         <f t="shared" si="10"/>
         <v>25.200000000000003</v>
       </c>
+      <c r="K139">
+        <f t="shared" si="11"/>
+        <v>25.200000000000003</v>
+      </c>
       <c r="L139" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150136, 2015, 'Marshallinseln', 42.0, 63.0, 70.0, 9.60, 25.20, 25.20);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150136, 2015, 'Marshallinseln', 42.0, 63.0, 70.0, 12.60, 25.20, 25.20);</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
@@ -18182,20 +18182,20 @@
         <v>89</v>
       </c>
       <c r="I140">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9.6000000000000014</v>
       </c>
       <c r="J140">
-        <f t="shared" si="9"/>
-        <v>19.200000000000003</v>
-      </c>
-      <c r="K140">
         <f t="shared" si="10"/>
         <v>19.200000000000003</v>
       </c>
+      <c r="K140">
+        <f t="shared" si="11"/>
+        <v>19.200000000000003</v>
+      </c>
       <c r="L140" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150137, 2015, 'Mauretanien', 32.0, 48.0, 89.0, 4.80, 19.20, 19.20);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150137, 2015, 'Mauretanien', 32.0, 48.0, 89.0, 9.60, 19.20, 19.20);</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
@@ -18221,20 +18221,20 @@
         <v>140</v>
       </c>
       <c r="I141">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9.6000000000000014</v>
       </c>
       <c r="J141">
-        <f t="shared" si="9"/>
-        <v>19.200000000000003</v>
-      </c>
-      <c r="K141">
         <f t="shared" si="10"/>
         <v>19.200000000000003</v>
       </c>
+      <c r="K141">
+        <f t="shared" si="11"/>
+        <v>19.200000000000003</v>
+      </c>
       <c r="L141" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150138, 2015, 'Mauritius', 32.0, 48.0, 140.0, 8.20, 19.20, 19.20);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150138, 2015, 'Mauritius', 32.0, 48.0, 140.0, 9.60, 19.20, 19.20);</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
@@ -18260,20 +18260,20 @@
         <v>95</v>
       </c>
       <c r="I142">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.8000000000000007</v>
       </c>
       <c r="J142">
-        <f t="shared" si="9"/>
-        <v>9.6000000000000014</v>
-      </c>
-      <c r="K142">
         <f t="shared" si="10"/>
         <v>9.6000000000000014</v>
       </c>
+      <c r="K142">
+        <f t="shared" si="11"/>
+        <v>9.6000000000000014</v>
+      </c>
       <c r="L142" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150139, 2015, 'Mazedonien', 16.0, 24.0, 95.0, 11.20, 9.60, 9.60);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150139, 2015, 'Mazedonien', 16.0, 24.0, 95.0, 4.80, 9.60, 9.60);</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
@@ -18299,20 +18299,20 @@
         <v>141</v>
       </c>
       <c r="I143">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8.2000000000000011</v>
       </c>
       <c r="J143">
-        <f t="shared" si="9"/>
-        <v>16.400000000000002</v>
-      </c>
-      <c r="K143">
         <f t="shared" si="10"/>
         <v>16.400000000000002</v>
       </c>
+      <c r="K143">
+        <f t="shared" si="11"/>
+        <v>16.400000000000002</v>
+      </c>
       <c r="L143" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150140, 2015, 'Mexiko', 28.0, 41.0, 141.0, 3.60, 16.40, 16.40);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150140, 2015, 'Mexiko', 28.0, 41.0, 141.0, 8.20, 16.40, 16.40);</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
@@ -18338,20 +18338,20 @@
         <v>74</v>
       </c>
       <c r="I144">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>11.200000000000001</v>
       </c>
       <c r="J144">
-        <f t="shared" si="9"/>
-        <v>22.400000000000002</v>
-      </c>
-      <c r="K144">
         <f t="shared" si="10"/>
         <v>22.400000000000002</v>
       </c>
+      <c r="K144">
+        <f t="shared" si="11"/>
+        <v>22.400000000000002</v>
+      </c>
       <c r="L144" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150141, 2015, 'Mikronesien', 37.0, 56.0, 74.0, 8.20, 22.40, 22.40);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150141, 2015, 'Mikronesien', 37.0, 56.0, 74.0, 11.20, 22.40, 22.40);</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
@@ -18377,20 +18377,20 @@
         <v>100</v>
       </c>
       <c r="I145">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.6</v>
       </c>
       <c r="J145">
-        <f t="shared" si="9"/>
-        <v>7.2</v>
-      </c>
-      <c r="K145">
         <f t="shared" si="10"/>
         <v>7.2</v>
       </c>
+      <c r="K145">
+        <f t="shared" si="11"/>
+        <v>7.2</v>
+      </c>
       <c r="L145" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150142, 2015, 'Moldawien - Moldau', 12.0, 18.0, 100.0, 5.80, 7.20, 7.20);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150142, 2015, 'Moldawien - Moldau', 12.0, 18.0, 100.0, 3.60, 7.20, 7.20);</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
@@ -18416,20 +18416,20 @@
         <v>52</v>
       </c>
       <c r="I146">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8.2000000000000011</v>
       </c>
       <c r="J146">
-        <f t="shared" si="9"/>
-        <v>16.400000000000002</v>
-      </c>
-      <c r="K146">
         <f t="shared" si="10"/>
         <v>16.400000000000002</v>
       </c>
+      <c r="K146">
+        <f t="shared" si="11"/>
+        <v>16.400000000000002</v>
+      </c>
       <c r="L146" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150143, 2015, 'Monaco', 28.0, 41.0, 52.0, 5.80, 16.40, 16.40);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150143, 2015, 'Monaco', 28.0, 41.0, 52.0, 8.20, 16.40, 16.40);</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
@@ -18455,20 +18455,20 @@
         <v>84</v>
       </c>
       <c r="I147">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.8000000000000007</v>
       </c>
       <c r="J147">
-        <f t="shared" si="9"/>
-        <v>11.600000000000001</v>
-      </c>
-      <c r="K147">
         <f t="shared" si="10"/>
         <v>11.600000000000001</v>
       </c>
+      <c r="K147">
+        <f t="shared" si="11"/>
+        <v>11.600000000000001</v>
+      </c>
       <c r="L147" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150144, 2015, 'Mongolei', 20.0, 29.0, 84.0, 8.40, 11.60, 11.60);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150144, 2015, 'Mongolei', 20.0, 29.0, 84.0, 5.80, 11.60, 11.60);</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
@@ -18494,20 +18494,20 @@
         <v>95</v>
       </c>
       <c r="I148">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.8000000000000007</v>
       </c>
       <c r="J148">
-        <f t="shared" si="9"/>
-        <v>11.600000000000001</v>
-      </c>
-      <c r="K148">
         <f t="shared" si="10"/>
         <v>11.600000000000001</v>
       </c>
+      <c r="K148">
+        <f t="shared" si="11"/>
+        <v>11.600000000000001</v>
+      </c>
       <c r="L148" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150145, 2015, 'Montenegro', 20.0, 29.0, 95.0, 9.20, 11.60, 11.60);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150145, 2015, 'Montenegro', 20.0, 29.0, 95.0, 5.80, 11.60, 11.60);</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
@@ -18533,20 +18533,20 @@
         <v>147</v>
       </c>
       <c r="I149">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8.4</v>
       </c>
       <c r="J149">
-        <f t="shared" si="9"/>
-        <v>16.8</v>
-      </c>
-      <c r="K149">
         <f t="shared" si="10"/>
         <v>16.8</v>
       </c>
+      <c r="K149">
+        <f t="shared" si="11"/>
+        <v>16.8</v>
+      </c>
       <c r="L149" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150146, 2015, 'Mosambik', 28.0, 42.0, 147.0, 4.60, 16.80, 16.80);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150146, 2015, 'Mosambik', 28.0, 42.0, 147.0, 8.40, 16.80, 16.80);</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
@@ -18572,20 +18572,20 @@
         <v>45</v>
       </c>
       <c r="I150">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9.2000000000000011</v>
       </c>
       <c r="J150">
-        <f t="shared" si="9"/>
-        <v>18.400000000000002</v>
-      </c>
-      <c r="K150">
         <f t="shared" si="10"/>
         <v>18.400000000000002</v>
       </c>
+      <c r="K150">
+        <f t="shared" si="11"/>
+        <v>18.400000000000002</v>
+      </c>
       <c r="L150" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150147, 2015, 'Myanmar (Burma)', 31.0, 46.0, 45.0, 5.60, 18.40, 18.40);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150147, 2015, 'Myanmar (Burma)', 31.0, 46.0, 45.0, 9.20, 18.40, 18.40);</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
@@ -18611,20 +18611,20 @@
         <v>77</v>
       </c>
       <c r="I151">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.6000000000000005</v>
       </c>
       <c r="J151">
-        <f t="shared" si="9"/>
-        <v>9.2000000000000011</v>
-      </c>
-      <c r="K151">
         <f t="shared" si="10"/>
         <v>9.2000000000000011</v>
       </c>
+      <c r="K151">
+        <f t="shared" si="11"/>
+        <v>9.2000000000000011</v>
+      </c>
       <c r="L151" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150148, 2015, 'Namibia', 16.0, 23.0, 77.0, 9.40, 9.20, 9.20);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150148, 2015, 'Namibia', 16.0, 23.0, 77.0, 4.60, 9.20, 9.20);</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
@@ -18650,20 +18650,20 @@
         <v>86</v>
       </c>
       <c r="I152">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.6000000000000005</v>
       </c>
       <c r="J152">
-        <f t="shared" si="9"/>
-        <v>11.200000000000001</v>
-      </c>
-      <c r="K152">
         <f t="shared" si="10"/>
         <v>11.200000000000001</v>
       </c>
+      <c r="K152">
+        <f t="shared" si="11"/>
+        <v>11.200000000000001</v>
+      </c>
       <c r="L152" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150149, 2015, 'Nepal', 19.0, 28.0, 86.0, 6.0, 11.20, 11.20);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150149, 2015, 'Nepal', 19.0, 28.0, 86.0, 5.60, 11.20, 11.20);</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
@@ -18689,20 +18689,20 @@
         <v>98</v>
       </c>
       <c r="I153">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9.4</v>
       </c>
       <c r="J153">
-        <f t="shared" si="9"/>
-        <v>18.8</v>
-      </c>
-      <c r="K153">
         <f t="shared" si="10"/>
         <v>18.8</v>
       </c>
+      <c r="K153">
+        <f t="shared" si="11"/>
+        <v>18.8</v>
+      </c>
       <c r="L153" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150150, 2015, 'Neuseeland', 32.0, 47.0, 98.0, 9.20, 18.80, 18.80);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150150, 2015, 'Neuseeland', 32.0, 47.0, 98.0, 9.40, 18.80, 18.80);</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
@@ -18728,20 +18728,20 @@
         <v>100</v>
       </c>
       <c r="I154">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="J154">
-        <f t="shared" si="9"/>
-        <v>12</v>
-      </c>
-      <c r="K154">
         <f t="shared" si="10"/>
         <v>12</v>
       </c>
+      <c r="K154">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
       <c r="L154" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150151, 2015, 'Nicaragua', 20.0, 30.0, 100.0, 7.20, 12.0, 12.0);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150151, 2015, 'Nicaragua', 20.0, 30.0, 100.0, 6.0, 12.0, 12.0);</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
@@ -18767,20 +18767,20 @@
         <v>119</v>
       </c>
       <c r="I155">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9.2000000000000011</v>
       </c>
       <c r="J155">
-        <f t="shared" si="9"/>
-        <v>18.400000000000002</v>
-      </c>
-      <c r="K155">
         <f t="shared" si="10"/>
         <v>18.400000000000002</v>
       </c>
+      <c r="K155">
+        <f t="shared" si="11"/>
+        <v>18.400000000000002</v>
+      </c>
       <c r="L155" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150152, 2015, 'Niederlande', 31.0, 46.0, 119.0, 12.60, 18.40, 18.40);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150152, 2015, 'Niederlande', 31.0, 46.0, 119.0, 9.20, 18.40, 18.40);</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
@@ -18806,20 +18806,20 @@
         <v>70</v>
       </c>
       <c r="I156">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.2</v>
       </c>
       <c r="J156">
-        <f t="shared" si="9"/>
-        <v>14.4</v>
-      </c>
-      <c r="K156">
         <f t="shared" si="10"/>
         <v>14.4</v>
       </c>
+      <c r="K156">
+        <f t="shared" si="11"/>
+        <v>14.4</v>
+      </c>
       <c r="L156" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150153, 2015, 'Niger', 24.0, 36.0, 70.0, 12.60, 14.40, 14.40);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150153, 2015, 'Niger', 24.0, 36.0, 70.0, 7.20, 14.40, 14.40);</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
@@ -18845,20 +18845,20 @@
         <v>255</v>
       </c>
       <c r="I157">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>12.600000000000001</v>
       </c>
       <c r="J157">
-        <f t="shared" si="9"/>
-        <v>25.200000000000003</v>
-      </c>
-      <c r="K157">
         <f t="shared" si="10"/>
         <v>25.200000000000003</v>
       </c>
+      <c r="K157">
+        <f t="shared" si="11"/>
+        <v>25.200000000000003</v>
+      </c>
       <c r="L157" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150154, 2015, 'Nigeria', 42.0, 63.0, 255.0, 12.80, 25.20, 25.20);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150154, 2015, 'Nigeria', 42.0, 63.0, 255.0, 12.60, 25.20, 25.20);</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
@@ -18884,20 +18884,20 @@
         <v>255</v>
       </c>
       <c r="I158">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>12.600000000000001</v>
       </c>
       <c r="J158">
-        <f t="shared" si="9"/>
-        <v>25.200000000000003</v>
-      </c>
-      <c r="K158">
         <f t="shared" si="10"/>
         <v>25.200000000000003</v>
       </c>
+      <c r="K158">
+        <f t="shared" si="11"/>
+        <v>25.200000000000003</v>
+      </c>
       <c r="L158" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150155, 2015, 'Nigeria-Lagos', 42.0, 63.0, 255.0, 9.60, 25.20, 25.20);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150155, 2015, 'Nigeria-Lagos', 42.0, 63.0, 255.0, 12.60, 25.20, 25.20);</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
@@ -18923,20 +18923,20 @@
         <v>182</v>
       </c>
       <c r="I159">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>12.8</v>
       </c>
       <c r="J159">
-        <f t="shared" si="9"/>
-        <v>25.6</v>
-      </c>
-      <c r="K159">
         <f t="shared" si="10"/>
         <v>25.6</v>
       </c>
+      <c r="K159">
+        <f t="shared" si="11"/>
+        <v>25.6</v>
+      </c>
       <c r="L159" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150156, 2015, 'Norwegen', 43.0, 64.0, 182.0, 5.40, 25.60, 25.60);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150156, 2015, 'Norwegen', 43.0, 64.0, 182.0, 12.80, 25.60, 25.60);</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
@@ -18962,20 +18962,20 @@
         <v>120</v>
       </c>
       <c r="I160">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9.6000000000000014</v>
       </c>
       <c r="J160">
-        <f t="shared" si="9"/>
-        <v>19.200000000000003</v>
-      </c>
-      <c r="K160">
         <f t="shared" si="10"/>
         <v>19.200000000000003</v>
       </c>
+      <c r="K160">
+        <f t="shared" si="11"/>
+        <v>19.200000000000003</v>
+      </c>
       <c r="L160" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150157, 2015, 'Oman', 32.0, 48.0, 120.0, 6.0, 19.20, 19.20);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150157, 2015, 'Oman', 32.0, 48.0, 120.0, 9.60, 19.20, 19.20);</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
@@ -19001,20 +19001,20 @@
         <v>68</v>
       </c>
       <c r="I161">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="J161">
-        <f t="shared" si="9"/>
-        <v>10.8</v>
-      </c>
-      <c r="K161">
         <f t="shared" si="10"/>
         <v>10.8</v>
       </c>
+      <c r="K161">
+        <f t="shared" si="11"/>
+        <v>10.8</v>
+      </c>
       <c r="L161" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150158, 2015, 'Pakistan', 18.0, 27.0, 68.0, 10.20, 10.80, 10.80);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150158, 2015, 'Pakistan', 18.0, 27.0, 68.0, 5.40, 10.80, 10.80);</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
@@ -19040,20 +19040,20 @@
         <v>165</v>
       </c>
       <c r="I162">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="J162">
-        <f t="shared" si="9"/>
-        <v>12</v>
-      </c>
-      <c r="K162">
         <f t="shared" si="10"/>
         <v>12</v>
       </c>
+      <c r="K162">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
       <c r="L162" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150159, 2015, 'Pakistan-Islamabad', 20.0, 30.0, 165.0, 6.80, 12.0, 12.0);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150159, 2015, 'Pakistan-Islamabad', 20.0, 30.0, 165.0, 6.0, 12.0, 12.0);</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
@@ -19079,20 +19079,20 @@
         <v>166</v>
       </c>
       <c r="I163">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10.200000000000001</v>
       </c>
       <c r="J163">
-        <f t="shared" si="9"/>
-        <v>20.400000000000002</v>
-      </c>
-      <c r="K163">
         <f t="shared" si="10"/>
         <v>20.400000000000002</v>
       </c>
+      <c r="K163">
+        <f t="shared" si="11"/>
+        <v>20.400000000000002</v>
+      </c>
       <c r="L163" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150160, 2015, 'Palau', 34.0, 51.0, 166.0, 7.20, 20.40, 20.40);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150160, 2015, 'Palau', 34.0, 51.0, 166.0, 10.20, 20.40, 20.40);</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
@@ -19118,20 +19118,20 @@
         <v>101</v>
       </c>
       <c r="I164">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.8000000000000007</v>
       </c>
       <c r="J164">
-        <f t="shared" si="9"/>
-        <v>13.600000000000001</v>
-      </c>
-      <c r="K164">
         <f t="shared" si="10"/>
         <v>13.600000000000001</v>
       </c>
+      <c r="K164">
+        <f t="shared" si="11"/>
+        <v>13.600000000000001</v>
+      </c>
       <c r="L164" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150161, 2015, 'Panama', 23.0, 34.0, 101.0, 7.20, 13.60, 13.60);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150161, 2015, 'Panama', 23.0, 34.0, 101.0, 6.80, 13.60, 13.60);</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
@@ -19157,20 +19157,20 @@
         <v>90</v>
       </c>
       <c r="I165">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.2</v>
       </c>
       <c r="J165">
-        <f t="shared" si="9"/>
-        <v>14.4</v>
-      </c>
-      <c r="K165">
         <f t="shared" si="10"/>
         <v>14.4</v>
       </c>
+      <c r="K165">
+        <f t="shared" si="11"/>
+        <v>14.4</v>
+      </c>
       <c r="L165" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150162, 2015, 'Papua-Neuguinea', 24.0, 36.0, 90.0, 6.0, 14.40, 14.40);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150162, 2015, 'Papua-Neuguinea', 24.0, 36.0, 90.0, 7.20, 14.40, 14.40);</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
@@ -19196,20 +19196,20 @@
         <v>61</v>
       </c>
       <c r="I166">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.2</v>
       </c>
       <c r="J166">
-        <f t="shared" si="9"/>
-        <v>14.4</v>
-      </c>
-      <c r="K166">
         <f t="shared" si="10"/>
         <v>14.4</v>
       </c>
+      <c r="K166">
+        <f t="shared" si="11"/>
+        <v>14.4</v>
+      </c>
       <c r="L166" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150163, 2015, 'Paraguay', 24.0, 36.0, 61.0, 6.0, 14.40, 14.40);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150163, 2015, 'Paraguay', 24.0, 36.0, 61.0, 7.20, 14.40, 14.40);</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
@@ -19235,20 +19235,20 @@
         <v>93</v>
       </c>
       <c r="I167">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="J167">
-        <f t="shared" si="9"/>
-        <v>12</v>
-      </c>
-      <c r="K167">
         <f t="shared" si="10"/>
         <v>12</v>
       </c>
+      <c r="K167">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
       <c r="L167" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150164, 2015, 'Peru', 20.0, 30.0, 93.0, 5.40, 12.0, 12.0);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150164, 2015, 'Peru', 20.0, 30.0, 93.0, 6.0, 12.0, 12.0);</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
@@ -19274,20 +19274,20 @@
         <v>107</v>
       </c>
       <c r="I168">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="J168">
-        <f t="shared" si="9"/>
-        <v>12</v>
-      </c>
-      <c r="K168">
         <f t="shared" si="10"/>
         <v>12</v>
       </c>
+      <c r="K168">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
       <c r="L168" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150165, 2015, 'Philippinen', 20.0, 30.0, 107.0, 6.60, 12.0, 12.0);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150165, 2015, 'Philippinen', 20.0, 30.0, 107.0, 6.0, 12.0, 12.0);</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
@@ -19313,20 +19313,20 @@
         <v>50</v>
       </c>
       <c r="I169">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="J169">
-        <f t="shared" si="9"/>
-        <v>10.8</v>
-      </c>
-      <c r="K169">
         <f t="shared" si="10"/>
         <v>10.8</v>
       </c>
+      <c r="K169">
+        <f t="shared" si="11"/>
+        <v>10.8</v>
+      </c>
       <c r="L169" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150166, 2015, 'Polen', 18.0, 27.0, 50.0, 5.80, 10.80, 10.80);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150166, 2015, 'Polen', 18.0, 27.0, 50.0, 5.40, 10.80, 10.80);</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
@@ -19352,20 +19352,20 @@
         <v>92</v>
       </c>
       <c r="I170">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.6000000000000005</v>
       </c>
       <c r="J170">
-        <f t="shared" si="9"/>
-        <v>13.200000000000001</v>
-      </c>
-      <c r="K170">
         <f t="shared" si="10"/>
         <v>13.200000000000001</v>
       </c>
+      <c r="K170">
+        <f t="shared" si="11"/>
+        <v>13.200000000000001</v>
+      </c>
       <c r="L170" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150167, 2015, 'Polen-Breslau', 22.0, 33.0, 92.0, 5.60, 13.20, 13.20);</v>
+        <f t="shared" ref="L170:L233" si="12">"INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (" &amp; B170&amp;""&amp; TEXT(A170, "000#") &amp; ", " &amp; B170 &amp; ", '" &amp; C170 &amp; "', " &amp; SUBSTITUTE(TEXT(E170,"#,#0"),",",".") &amp; ", " &amp; SUBSTITUTE(TEXT(F170,"#,#0"),",",".")  &amp; ", " &amp; SUBSTITUTE(TEXT(G170,"#,#0"),",",".") &amp; ", " &amp; SUBSTITUTE(TEXT(I170,"#,#0"),",",".") &amp; ", " &amp; SUBSTITUTE(TEXT(J170,"#,#0"),",",".") &amp; ", " &amp; SUBSTITUTE(TEXT(K170,"#,#0"),",",".") &amp; ");"</f>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150167, 2015, 'Polen-Breslau', 22.0, 33.0, 92.0, 6.60, 13.20, 13.20);</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
@@ -19391,20 +19391,20 @@
         <v>77</v>
       </c>
       <c r="I171">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.8000000000000007</v>
       </c>
       <c r="J171">
-        <f t="shared" si="9"/>
-        <v>11.600000000000001</v>
-      </c>
-      <c r="K171">
         <f t="shared" si="10"/>
         <v>11.600000000000001</v>
       </c>
+      <c r="K171">
+        <f t="shared" si="11"/>
+        <v>11.600000000000001</v>
+      </c>
       <c r="L171" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150168, 2015, 'Polen-Danzig', 20.0, 29.0, 77.0, 6.0, 11.60, 11.60);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150168, 2015, 'Polen-Danzig', 20.0, 29.0, 77.0, 5.80, 11.60, 11.60);</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
@@ -19430,20 +19430,20 @@
         <v>88</v>
       </c>
       <c r="I172">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.6000000000000005</v>
       </c>
       <c r="J172">
-        <f t="shared" si="9"/>
-        <v>11.200000000000001</v>
-      </c>
-      <c r="K172">
         <f t="shared" si="10"/>
         <v>11.200000000000001</v>
       </c>
+      <c r="K172">
+        <f t="shared" si="11"/>
+        <v>11.200000000000001</v>
+      </c>
       <c r="L172" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150169, 2015, 'Polen-Krakau', 19.0, 28.0, 88.0, 7.20, 11.20, 11.20);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150169, 2015, 'Polen-Krakau', 19.0, 28.0, 88.0, 5.60, 11.20, 11.20);</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
@@ -19469,20 +19469,20 @@
         <v>105</v>
       </c>
       <c r="I173">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="J173">
-        <f t="shared" si="9"/>
-        <v>12</v>
-      </c>
-      <c r="K173">
         <f t="shared" si="10"/>
         <v>12</v>
       </c>
+      <c r="K173">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
       <c r="L173" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150170, 2015, 'Polen-Warschau', 20.0, 30.0, 105.0, 7.20, 12.0, 12.0);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150170, 2015, 'Polen-Warschau', 20.0, 30.0, 105.0, 6.0, 12.0, 12.0);</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
@@ -19508,19 +19508,19 @@
         <v>92</v>
       </c>
       <c r="I174">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.2</v>
       </c>
       <c r="J174">
-        <f t="shared" si="9"/>
-        <v>14.4</v>
-      </c>
-      <c r="K174">
         <f t="shared" si="10"/>
         <v>14.4</v>
       </c>
+      <c r="K174">
+        <f t="shared" si="11"/>
+        <v>14.4</v>
+      </c>
       <c r="L174" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150171, 2015, 'Portugal', 24.0, 36.0, 92.0, 7.20, 14.40, 14.40);</v>
       </c>
     </row>
@@ -19547,20 +19547,20 @@
         <v>92</v>
       </c>
       <c r="I175">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.2</v>
       </c>
       <c r="J175">
-        <f t="shared" si="9"/>
-        <v>14.4</v>
-      </c>
-      <c r="K175">
         <f t="shared" si="10"/>
         <v>14.4</v>
       </c>
+      <c r="K175">
+        <f t="shared" si="11"/>
+        <v>14.4</v>
+      </c>
       <c r="L175" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150172, 2015, 'Portugal-Lissabon', 24.0, 36.0, 92.0, 5.40, 14.40, 14.40);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150172, 2015, 'Portugal-Lissabon', 24.0, 36.0, 92.0, 7.20, 14.40, 14.40);</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
@@ -19586,20 +19586,20 @@
         <v>135</v>
       </c>
       <c r="I176">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.2</v>
       </c>
       <c r="J176">
-        <f t="shared" si="9"/>
-        <v>14.4</v>
-      </c>
-      <c r="K176">
         <f t="shared" si="10"/>
         <v>14.4</v>
       </c>
+      <c r="K176">
+        <f t="shared" si="11"/>
+        <v>14.4</v>
+      </c>
       <c r="L176" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150173, 2015, 'Ruanda', 24.0, 36.0, 135.0, 5.20, 14.40, 14.40);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150173, 2015, 'Ruanda', 24.0, 36.0, 135.0, 7.20, 14.40, 14.40);</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
@@ -19625,20 +19625,20 @@
         <v>80</v>
       </c>
       <c r="I177">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="J177">
-        <f t="shared" si="9"/>
-        <v>10.8</v>
-      </c>
-      <c r="K177">
         <f t="shared" si="10"/>
         <v>10.8</v>
       </c>
+      <c r="K177">
+        <f t="shared" si="11"/>
+        <v>10.8</v>
+      </c>
       <c r="L177" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150174, 2015, 'Rumänien', 18.0, 27.0, 80.0, 4.20, 10.80, 10.80);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150174, 2015, 'Rumänien', 18.0, 27.0, 80.0, 5.40, 10.80, 10.80);</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
@@ -19664,20 +19664,20 @@
         <v>100</v>
       </c>
       <c r="I178">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.2</v>
       </c>
       <c r="J178">
-        <f t="shared" si="9"/>
-        <v>10.4</v>
-      </c>
-      <c r="K178">
         <f t="shared" si="10"/>
         <v>10.4</v>
       </c>
+      <c r="K178">
+        <f t="shared" si="11"/>
+        <v>10.4</v>
+      </c>
       <c r="L178" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150175, 2015, 'Rumänien-Bukarest', 17.0, 26.0, 100.0, 6.0, 10.40, 10.40);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150175, 2015, 'Rumänien-Bukarest', 17.0, 26.0, 100.0, 5.20, 10.40, 10.40);</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
@@ -19703,20 +19703,20 @@
         <v>78</v>
       </c>
       <c r="I179">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.2</v>
       </c>
       <c r="J179">
-        <f t="shared" si="9"/>
-        <v>8.4</v>
-      </c>
-      <c r="K179">
         <f t="shared" si="10"/>
         <v>8.4</v>
       </c>
+      <c r="K179">
+        <f t="shared" si="11"/>
+        <v>8.4</v>
+      </c>
       <c r="L179" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150176, 2015, 'Russische Föderation', 14.0, 21.0, 78.0, 4.80, 8.40, 8.40);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150176, 2015, 'Russische Föderation', 14.0, 21.0, 78.0, 4.20, 8.40, 8.40);</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
@@ -19742,20 +19742,20 @@
         <v>118</v>
       </c>
       <c r="I180">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="J180">
-        <f t="shared" si="9"/>
-        <v>12</v>
-      </c>
-      <c r="K180">
         <f t="shared" si="10"/>
         <v>12</v>
       </c>
+      <c r="K180">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
       <c r="L180" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150177, 2015, 'Russische Föderation-Moskau', 20.0, 30.0, 118.0, 7.20, 12.0, 12.0);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150177, 2015, 'Russische Föderation-Moskau', 20.0, 30.0, 118.0, 6.0, 12.0, 12.0);</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
@@ -19781,20 +19781,20 @@
         <v>104</v>
       </c>
       <c r="I181">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.8000000000000007</v>
       </c>
       <c r="J181">
-        <f t="shared" si="9"/>
-        <v>9.6000000000000014</v>
-      </c>
-      <c r="K181">
         <f t="shared" si="10"/>
         <v>9.6000000000000014</v>
       </c>
+      <c r="K181">
+        <f t="shared" si="11"/>
+        <v>9.6000000000000014</v>
+      </c>
       <c r="L181" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150178, 2015, 'Russische Föderation-St. Petersburg', 16.0, 24.0, 104.0, 5.80, 9.60, 9.60);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150178, 2015, 'Russische Föderation-St. Petersburg', 16.0, 24.0, 104.0, 4.80, 9.60, 9.60);</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
@@ -19820,20 +19820,20 @@
         <v>95</v>
       </c>
       <c r="I182">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.2</v>
       </c>
       <c r="J182">
-        <f t="shared" si="9"/>
-        <v>14.4</v>
-      </c>
-      <c r="K182">
         <f t="shared" si="10"/>
         <v>14.4</v>
       </c>
+      <c r="K182">
+        <f t="shared" si="11"/>
+        <v>14.4</v>
+      </c>
       <c r="L182" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150179, 2015, 'Sambia', 24.0, 36.0, 95.0, 8.20, 14.40, 14.40);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150179, 2015, 'Sambia', 24.0, 36.0, 95.0, 7.20, 14.40, 14.40);</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
@@ -19859,20 +19859,20 @@
         <v>57</v>
       </c>
       <c r="I183">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.8000000000000007</v>
       </c>
       <c r="J183">
-        <f t="shared" si="9"/>
-        <v>11.600000000000001</v>
-      </c>
-      <c r="K183">
         <f t="shared" si="10"/>
         <v>11.600000000000001</v>
       </c>
+      <c r="K183">
+        <f t="shared" si="11"/>
+        <v>11.600000000000001</v>
+      </c>
       <c r="L183" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150180, 2015, 'Samoa', 20.0, 29.0, 57.0, 8.40, 11.60, 11.60);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150180, 2015, 'Samoa', 20.0, 29.0, 57.0, 5.80, 11.60, 11.60);</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
@@ -19898,20 +19898,20 @@
         <v>77</v>
       </c>
       <c r="I184">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8.2000000000000011</v>
       </c>
       <c r="J184">
-        <f t="shared" si="9"/>
-        <v>16.400000000000002</v>
-      </c>
-      <c r="K184">
         <f t="shared" si="10"/>
         <v>16.400000000000002</v>
       </c>
+      <c r="K184">
+        <f t="shared" si="11"/>
+        <v>16.400000000000002</v>
+      </c>
       <c r="L184" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150181, 2015, 'San Marino', 28.0, 41.0, 77.0, 9.40, 16.40, 16.40);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150181, 2015, 'San Marino', 28.0, 41.0, 77.0, 8.20, 16.40, 16.40);</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
@@ -19937,20 +19937,20 @@
         <v>75</v>
       </c>
       <c r="I185">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8.4</v>
       </c>
       <c r="J185">
-        <f t="shared" si="9"/>
-        <v>16.8</v>
-      </c>
-      <c r="K185">
         <f t="shared" si="10"/>
         <v>16.8</v>
       </c>
+      <c r="K185">
+        <f t="shared" si="11"/>
+        <v>16.8</v>
+      </c>
       <c r="L185" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150182, 2015, 'Sao Tome u. Principe', 28.0, 42.0, 75.0, 9.60, 16.80, 16.80);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150182, 2015, 'Sao Tome u. Principe', 28.0, 42.0, 75.0, 8.40, 16.80, 16.80);</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
@@ -19976,20 +19976,20 @@
         <v>80</v>
       </c>
       <c r="I186">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9.4</v>
       </c>
       <c r="J186">
-        <f t="shared" si="9"/>
-        <v>18.8</v>
-      </c>
-      <c r="K186">
         <f t="shared" si="10"/>
         <v>18.8</v>
       </c>
+      <c r="K186">
+        <f t="shared" si="11"/>
+        <v>18.8</v>
+      </c>
       <c r="L186" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150183, 2015, 'Saudi-Arabien', 32.0, 47.0, 80.0, 9.60, 18.80, 18.80);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150183, 2015, 'Saudi-Arabien', 32.0, 47.0, 80.0, 9.40, 18.80, 18.80);</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
@@ -20015,20 +20015,20 @@
         <v>80</v>
       </c>
       <c r="I187">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9.6000000000000014</v>
       </c>
       <c r="J187">
-        <f t="shared" si="9"/>
-        <v>19.200000000000003</v>
-      </c>
-      <c r="K187">
         <f t="shared" si="10"/>
         <v>19.200000000000003</v>
       </c>
+      <c r="K187">
+        <f t="shared" si="11"/>
+        <v>19.200000000000003</v>
+      </c>
       <c r="L187" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150184, 2015, 'Saudi-Arabien - Djidda', 32.0, 48.0, 80.0, 14.40, 19.20, 19.20);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150184, 2015, 'Saudi-Arabien - Djidda', 32.0, 48.0, 80.0, 9.60, 19.20, 19.20);</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
@@ -20054,19 +20054,19 @@
         <v>95</v>
       </c>
       <c r="I188">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9.6000000000000014</v>
       </c>
       <c r="J188">
-        <f t="shared" si="9"/>
-        <v>19.200000000000003</v>
-      </c>
-      <c r="K188">
         <f t="shared" si="10"/>
         <v>19.200000000000003</v>
       </c>
+      <c r="K188">
+        <f t="shared" si="11"/>
+        <v>19.200000000000003</v>
+      </c>
       <c r="L188" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150185, 2015, 'Saudi-Arabien - Riad', 32.0, 48.0, 95.0, 9.60, 19.20, 19.20);</v>
       </c>
     </row>
@@ -20093,20 +20093,20 @@
         <v>165</v>
       </c>
       <c r="I189">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>14.4</v>
       </c>
       <c r="J189">
-        <f t="shared" si="9"/>
-        <v>28.8</v>
-      </c>
-      <c r="K189">
         <f t="shared" si="10"/>
         <v>28.8</v>
       </c>
+      <c r="K189">
+        <f t="shared" si="11"/>
+        <v>28.8</v>
+      </c>
       <c r="L189" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150186, 2015, 'Schweden', 48.0, 72.0, 165.0, 9.60, 28.80, 28.80);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150186, 2015, 'Schweden', 48.0, 72.0, 165.0, 14.40, 28.80, 28.80);</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
@@ -20132,20 +20132,20 @@
         <v>139</v>
       </c>
       <c r="I190">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9.6000000000000014</v>
       </c>
       <c r="J190">
-        <f t="shared" si="9"/>
-        <v>19.200000000000003</v>
-      </c>
-      <c r="K190">
         <f t="shared" si="10"/>
         <v>19.200000000000003</v>
       </c>
+      <c r="K190">
+        <f t="shared" si="11"/>
+        <v>19.200000000000003</v>
+      </c>
       <c r="L190" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150187, 2015, 'Schweiz', 32.0, 48.0, 139.0, 12.40, 19.20, 19.20);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150187, 2015, 'Schweiz', 32.0, 48.0, 139.0, 9.60, 19.20, 19.20);</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
@@ -20171,20 +20171,20 @@
         <v>139</v>
       </c>
       <c r="I191">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9.6000000000000014</v>
       </c>
       <c r="J191">
-        <f t="shared" si="9"/>
-        <v>19.200000000000003</v>
-      </c>
-      <c r="K191">
         <f t="shared" si="10"/>
         <v>19.200000000000003</v>
       </c>
+      <c r="K191">
+        <f t="shared" si="11"/>
+        <v>19.200000000000003</v>
+      </c>
       <c r="L191" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150188, 2015, 'Schweiz-Bern', 32.0, 48.0, 139.0, 9.40, 19.20, 19.20);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150188, 2015, 'Schweiz-Bern', 32.0, 48.0, 139.0, 9.60, 19.20, 19.20);</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
@@ -20210,20 +20210,20 @@
         <v>174</v>
       </c>
       <c r="I192">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>12.4</v>
       </c>
       <c r="J192">
-        <f t="shared" si="9"/>
-        <v>24.8</v>
-      </c>
-      <c r="K192">
         <f t="shared" si="10"/>
         <v>24.8</v>
       </c>
+      <c r="K192">
+        <f t="shared" si="11"/>
+        <v>24.8</v>
+      </c>
       <c r="L192" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150189, 2015, 'Schweiz-Genf', 41.0, 62.0, 174.0, 6.0, 24.80, 24.80);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150189, 2015, 'Schweiz-Genf', 41.0, 62.0, 174.0, 12.40, 24.80, 24.80);</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.25">
@@ -20249,20 +20249,20 @@
         <v>125</v>
       </c>
       <c r="I193">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9.4</v>
       </c>
       <c r="J193">
-        <f t="shared" si="9"/>
-        <v>18.8</v>
-      </c>
-      <c r="K193">
         <f t="shared" si="10"/>
         <v>18.8</v>
       </c>
+      <c r="K193">
+        <f t="shared" si="11"/>
+        <v>18.8</v>
+      </c>
       <c r="L193" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150190, 2015, 'Senegal', 32.0, 47.0, 125.0, 7.80, 18.80, 18.80);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150190, 2015, 'Senegal', 32.0, 47.0, 125.0, 9.40, 18.80, 18.80);</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.25">
@@ -20288,20 +20288,20 @@
         <v>90</v>
       </c>
       <c r="I194">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="J194">
-        <f t="shared" si="9"/>
-        <v>12</v>
-      </c>
-      <c r="K194">
         <f t="shared" si="10"/>
         <v>12</v>
       </c>
+      <c r="K194">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
       <c r="L194" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150191, 2015, 'Serbien', 20.0, 30.0, 90.0, 9.0, 12.0, 12.0);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150191, 2015, 'Serbien', 20.0, 30.0, 90.0, 6.0, 12.0, 12.0);</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.25">
@@ -20327,20 +20327,20 @@
         <v>82</v>
       </c>
       <c r="I195">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.8000000000000007</v>
       </c>
       <c r="J195">
-        <f t="shared" si="9"/>
-        <v>15.600000000000001</v>
-      </c>
-      <c r="K195">
         <f t="shared" si="10"/>
         <v>15.600000000000001</v>
       </c>
+      <c r="K195">
+        <f t="shared" si="11"/>
+        <v>15.600000000000001</v>
+      </c>
       <c r="L195" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150192, 2015, 'Sierra Leone', 26.0, 39.0, 82.0, 10.60, 15.60, 15.60);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150192, 2015, 'Sierra Leone', 26.0, 39.0, 82.0, 7.80, 15.60, 15.60);</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.25">
@@ -20366,20 +20366,20 @@
         <v>103</v>
       </c>
       <c r="I196">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="J196">
-        <f t="shared" si="9"/>
-        <v>18</v>
-      </c>
-      <c r="K196">
         <f t="shared" si="10"/>
         <v>18</v>
       </c>
+      <c r="K196">
+        <f t="shared" si="11"/>
+        <v>18</v>
+      </c>
       <c r="L196" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150193, 2015, 'Simbabwe', 30.0, 45.0, 103.0, 4.80, 18.0, 18.0);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150193, 2015, 'Simbabwe', 30.0, 45.0, 103.0, 9.0, 18.0, 18.0);</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.25">
@@ -20405,20 +20405,20 @@
         <v>188</v>
       </c>
       <c r="I197">
-        <f t="shared" ref="I197:I260" si="12">F197*0.2</f>
+        <f t="shared" ref="I197:I260" si="13">F197*0.2</f>
         <v>10.600000000000001</v>
       </c>
       <c r="J197">
-        <f t="shared" ref="J197:J260" si="13">F197*0.4</f>
+        <f t="shared" ref="J197:J260" si="14">F197*0.4</f>
         <v>21.200000000000003</v>
       </c>
       <c r="K197">
-        <f t="shared" ref="K197:K260" si="14">F197*0.4</f>
+        <f t="shared" ref="K197:K260" si="15">F197*0.4</f>
         <v>21.200000000000003</v>
       </c>
       <c r="L197" t="str">
-        <f t="shared" ref="L197:L260" si="15">"INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (" &amp; B197&amp;""&amp; TEXT(A197, "000#") &amp; ", " &amp; B197 &amp; ", '" &amp; C197 &amp; "', " &amp; SUBSTITUTE(TEXT(E197,"#,#0"),",",".") &amp; ", " &amp; SUBSTITUTE(TEXT(F197,"#,#0"),",",".")  &amp; ", " &amp; SUBSTITUTE(TEXT(G197,"#,#0"),",",".") &amp; ", " &amp; SUBSTITUTE(TEXT(I199,"#,#0"),",",".") &amp; ", " &amp; SUBSTITUTE(TEXT(J197,"#,#0"),",",".") &amp; ", " &amp; SUBSTITUTE(TEXT(K197,"#,#0"),",",".") &amp; ");"</f>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150194, 2015, 'Singapur', 36.0, 53.0, 188.0, 4.80, 21.20, 21.20);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150194, 2015, 'Singapur', 36.0, 53.0, 188.0, 10.60, 21.20, 21.20);</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.25">
@@ -20444,20 +20444,20 @@
         <v>130</v>
       </c>
       <c r="I198">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4.8000000000000007</v>
       </c>
       <c r="J198">
-        <f t="shared" si="13"/>
-        <v>9.6000000000000014</v>
-      </c>
-      <c r="K198">
         <f t="shared" si="14"/>
         <v>9.6000000000000014</v>
       </c>
+      <c r="K198">
+        <f t="shared" si="15"/>
+        <v>9.6000000000000014</v>
+      </c>
       <c r="L198" t="str">
-        <f t="shared" si="15"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150195, 2015, 'Slowakei', 16.0, 24.0, 130.0, 6.0, 9.60, 9.60);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150195, 2015, 'Slowakei', 16.0, 24.0, 130.0, 4.80, 9.60, 9.60);</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.25">
@@ -20483,20 +20483,20 @@
         <v>130</v>
       </c>
       <c r="I199">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4.8000000000000007</v>
       </c>
       <c r="J199">
-        <f t="shared" si="13"/>
-        <v>9.6000000000000014</v>
-      </c>
-      <c r="K199">
         <f t="shared" si="14"/>
         <v>9.6000000000000014</v>
       </c>
+      <c r="K199">
+        <f t="shared" si="15"/>
+        <v>9.6000000000000014</v>
+      </c>
       <c r="L199" t="str">
-        <f t="shared" si="15"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150196, 2015, 'Slowakei-Bratislava Pressburg', 16.0, 24.0, 130.0, 7.80, 9.60, 9.60);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150196, 2015, 'Slowakei-Bratislava Pressburg', 16.0, 24.0, 130.0, 4.80, 9.60, 9.60);</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.25">
@@ -20522,20 +20522,20 @@
         <v>95</v>
       </c>
       <c r="I200">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="J200">
-        <f t="shared" si="13"/>
-        <v>12</v>
-      </c>
-      <c r="K200">
         <f t="shared" si="14"/>
         <v>12</v>
       </c>
+      <c r="K200">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
       <c r="L200" t="str">
-        <f t="shared" si="15"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150197, 2015, 'Slowenien', 20.0, 30.0, 95.0, 5.80, 12.0, 12.0);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150197, 2015, 'Slowenien', 20.0, 30.0, 95.0, 6.0, 12.0, 12.0);</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.25">
@@ -20561,20 +20561,20 @@
         <v>87</v>
       </c>
       <c r="I201">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.8000000000000007</v>
       </c>
       <c r="J201">
-        <f t="shared" si="13"/>
-        <v>15.600000000000001</v>
-      </c>
-      <c r="K201">
         <f t="shared" si="14"/>
         <v>15.600000000000001</v>
       </c>
+      <c r="K201">
+        <f t="shared" si="15"/>
+        <v>15.600000000000001</v>
+      </c>
       <c r="L201" t="str">
-        <f t="shared" si="15"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150198, 2015, 'Somalia', 26.0, 39.0, 87.0, 6.40, 15.60, 15.60);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150198, 2015, 'Somalia', 26.0, 39.0, 87.0, 7.80, 15.60, 15.60);</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.25">
@@ -20600,20 +20600,20 @@
         <v>88</v>
       </c>
       <c r="I202">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5.8000000000000007</v>
       </c>
       <c r="J202">
-        <f t="shared" si="13"/>
-        <v>11.600000000000001</v>
-      </c>
-      <c r="K202">
         <f t="shared" si="14"/>
         <v>11.600000000000001</v>
       </c>
+      <c r="K202">
+        <f t="shared" si="15"/>
+        <v>11.600000000000001</v>
+      </c>
       <c r="L202" t="str">
-        <f t="shared" si="15"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150199, 2015, 'Spanien', 20.0, 29.0, 88.0, 6.40, 11.60, 11.60);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150199, 2015, 'Spanien', 20.0, 29.0, 88.0, 5.80, 11.60, 11.60);</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.25">
@@ -20639,20 +20639,20 @@
         <v>118</v>
       </c>
       <c r="I203">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6.4</v>
       </c>
       <c r="J203">
-        <f t="shared" si="13"/>
-        <v>12.8</v>
-      </c>
-      <c r="K203">
         <f t="shared" si="14"/>
         <v>12.8</v>
       </c>
+      <c r="K203">
+        <f t="shared" si="15"/>
+        <v>12.8</v>
+      </c>
       <c r="L203" t="str">
-        <f t="shared" si="15"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150200, 2015, 'Spanien-Barcelona', 21.0, 32.0, 118.0, 8.20, 12.80, 12.80);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150200, 2015, 'Spanien-Barcelona', 21.0, 32.0, 118.0, 6.40, 12.80, 12.80);</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.25">
@@ -20678,19 +20678,19 @@
         <v>98</v>
       </c>
       <c r="I204">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6.4</v>
       </c>
       <c r="J204">
-        <f t="shared" si="13"/>
-        <v>12.8</v>
-      </c>
-      <c r="K204">
         <f t="shared" si="14"/>
         <v>12.8</v>
       </c>
+      <c r="K204">
+        <f t="shared" si="15"/>
+        <v>12.8</v>
+      </c>
       <c r="L204" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150201, 2015, 'Spanien-Kanarische Inseln', 21.0, 32.0, 98.0, 6.40, 12.80, 12.80);</v>
       </c>
     </row>
@@ -20717,20 +20717,20 @@
         <v>113</v>
       </c>
       <c r="I205">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8.2000000000000011</v>
       </c>
       <c r="J205">
-        <f t="shared" si="13"/>
-        <v>16.400000000000002</v>
-      </c>
-      <c r="K205">
         <f t="shared" si="14"/>
         <v>16.400000000000002</v>
       </c>
+      <c r="K205">
+        <f t="shared" si="15"/>
+        <v>16.400000000000002</v>
+      </c>
       <c r="L205" t="str">
-        <f t="shared" si="15"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150202, 2015, 'Spanien-Madrid', 28.0, 41.0, 113.0, 8.0, 16.40, 16.40);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150202, 2015, 'Spanien-Madrid', 28.0, 41.0, 113.0, 8.20, 16.40, 16.40);</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.25">
@@ -20756,20 +20756,20 @@
         <v>110</v>
       </c>
       <c r="I206">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6.4</v>
       </c>
       <c r="J206">
-        <f t="shared" si="13"/>
-        <v>12.8</v>
-      </c>
-      <c r="K206">
         <f t="shared" si="14"/>
         <v>12.8</v>
       </c>
+      <c r="K206">
+        <f t="shared" si="15"/>
+        <v>12.8</v>
+      </c>
       <c r="L206" t="str">
-        <f t="shared" si="15"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150203, 2015, 'Spanien-Palma de Mallorca', 21.0, 32.0, 110.0, 9.0, 12.80, 12.80);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150203, 2015, 'Spanien-Palma de Mallorca', 21.0, 32.0, 110.0, 6.40, 12.80, 12.80);</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.25">
@@ -20795,20 +20795,20 @@
         <v>118</v>
       </c>
       <c r="I207">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="J207">
-        <f t="shared" si="13"/>
-        <v>16</v>
-      </c>
-      <c r="K207">
         <f t="shared" si="14"/>
         <v>16</v>
       </c>
+      <c r="K207">
+        <f t="shared" si="15"/>
+        <v>16</v>
+      </c>
       <c r="L207" t="str">
-        <f t="shared" si="15"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150204, 2015, 'Sri Lanka', 27.0, 40.0, 118.0, 10.80, 16.0, 16.0);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150204, 2015, 'Sri Lanka', 27.0, 40.0, 118.0, 8.0, 16.0, 16.0);</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
@@ -20834,20 +20834,20 @@
         <v>99</v>
       </c>
       <c r="I208">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="J208">
-        <f t="shared" si="13"/>
-        <v>18</v>
-      </c>
-      <c r="K208">
         <f t="shared" si="14"/>
         <v>18</v>
       </c>
+      <c r="K208">
+        <f t="shared" si="15"/>
+        <v>18</v>
+      </c>
       <c r="L208" t="str">
-        <f t="shared" si="15"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150205, 2015, 'St. Kitts und Nevis', 30.0, 45.0, 99.0, 10.40, 18.0, 18.0);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150205, 2015, 'St. Kitts und Nevis', 30.0, 45.0, 99.0, 9.0, 18.0, 18.0);</v>
       </c>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.25">
@@ -20873,20 +20873,20 @@
         <v>129</v>
       </c>
       <c r="I209">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>10.8</v>
       </c>
       <c r="J209">
-        <f t="shared" si="13"/>
-        <v>21.6</v>
-      </c>
-      <c r="K209">
         <f t="shared" si="14"/>
         <v>21.6</v>
       </c>
+      <c r="K209">
+        <f t="shared" si="15"/>
+        <v>21.6</v>
+      </c>
       <c r="L209" t="str">
-        <f t="shared" si="15"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150206, 2015, 'St. Lucia', 36.0, 54.0, 129.0, 7.0, 21.60, 21.60);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150206, 2015, 'St. Lucia', 36.0, 54.0, 129.0, 10.80, 21.60, 21.60);</v>
       </c>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.25">
@@ -20912,20 +20912,20 @@
         <v>121</v>
       </c>
       <c r="I210">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>10.4</v>
       </c>
       <c r="J210">
-        <f t="shared" si="13"/>
-        <v>20.8</v>
-      </c>
-      <c r="K210">
         <f t="shared" si="14"/>
         <v>20.8</v>
       </c>
+      <c r="K210">
+        <f t="shared" si="15"/>
+        <v>20.8</v>
+      </c>
       <c r="L210" t="str">
-        <f t="shared" si="15"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150207, 2015, 'St. Vincent u. d. Grenadinen', 35.0, 52.0, 121.0, 6.0, 20.80, 20.80);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150207, 2015, 'St. Vincent u. d. Grenadinen', 35.0, 52.0, 121.0, 10.40, 20.80, 20.80);</v>
       </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.25">
@@ -20951,20 +20951,20 @@
         <v>115</v>
       </c>
       <c r="I211">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="J211">
-        <f t="shared" si="13"/>
-        <v>14</v>
-      </c>
-      <c r="K211">
         <f t="shared" si="14"/>
         <v>14</v>
       </c>
+      <c r="K211">
+        <f t="shared" si="15"/>
+        <v>14</v>
+      </c>
       <c r="L211" t="str">
-        <f t="shared" si="15"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150208, 2015, 'Sudan', 24.0, 35.0, 115.0, 7.80, 14.0, 14.0);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150208, 2015, 'Sudan', 24.0, 35.0, 115.0, 7.0, 14.0, 14.0);</v>
       </c>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.25">
@@ -20990,20 +20990,20 @@
         <v>108</v>
       </c>
       <c r="I212">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="J212">
-        <f t="shared" si="13"/>
-        <v>12</v>
-      </c>
-      <c r="K212">
         <f t="shared" si="14"/>
         <v>12</v>
       </c>
+      <c r="K212">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
       <c r="L212" t="str">
-        <f t="shared" si="15"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150209, 2015, 'Suriname', 20.0, 30.0, 108.0, 7.20, 12.0, 12.0);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150209, 2015, 'Suriname', 20.0, 30.0, 108.0, 6.0, 12.0, 12.0);</v>
       </c>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.25">
@@ -21029,20 +21029,20 @@
         <v>87</v>
       </c>
       <c r="I213">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.8000000000000007</v>
       </c>
       <c r="J213">
-        <f t="shared" si="13"/>
-        <v>15.600000000000001</v>
-      </c>
-      <c r="K213">
         <f t="shared" si="14"/>
         <v>15.600000000000001</v>
       </c>
+      <c r="K213">
+        <f t="shared" si="15"/>
+        <v>15.600000000000001</v>
+      </c>
       <c r="L213" t="str">
-        <f t="shared" si="15"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150210, 2015, 'Swasiland', 26.0, 39.0, 87.0, 7.60, 15.60, 15.60);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150210, 2015, 'Swasiland', 26.0, 39.0, 87.0, 7.80, 15.60, 15.60);</v>
       </c>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.25">
@@ -21068,20 +21068,20 @@
         <v>72</v>
       </c>
       <c r="I214">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.2</v>
       </c>
       <c r="J214">
-        <f t="shared" si="13"/>
-        <v>14.4</v>
-      </c>
-      <c r="K214">
         <f t="shared" si="14"/>
         <v>14.4</v>
       </c>
+      <c r="K214">
+        <f t="shared" si="15"/>
+        <v>14.4</v>
+      </c>
       <c r="L214" t="str">
-        <f t="shared" si="15"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150211, 2015, 'Südafrika', 24.0, 36.0, 72.0, 10.60, 14.40, 14.40);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150211, 2015, 'Südafrika', 24.0, 36.0, 72.0, 7.20, 14.40, 14.40);</v>
       </c>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.25">
@@ -21107,19 +21107,19 @@
         <v>84</v>
       </c>
       <c r="I215">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.6000000000000005</v>
       </c>
       <c r="J215">
-        <f t="shared" si="13"/>
-        <v>15.200000000000001</v>
-      </c>
-      <c r="K215">
         <f t="shared" si="14"/>
         <v>15.200000000000001</v>
       </c>
+      <c r="K215">
+        <f t="shared" si="15"/>
+        <v>15.200000000000001</v>
+      </c>
       <c r="L215" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150212, 2015, 'Südafrika-Kapstadt', 25.0, 38.0, 84.0, 7.60, 15.20, 15.20);</v>
       </c>
     </row>
@@ -21146,20 +21146,20 @@
         <v>114</v>
       </c>
       <c r="I216">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>10.600000000000001</v>
       </c>
       <c r="J216">
-        <f t="shared" si="13"/>
-        <v>21.200000000000003</v>
-      </c>
-      <c r="K216">
         <f t="shared" si="14"/>
         <v>21.200000000000003</v>
       </c>
+      <c r="K216">
+        <f t="shared" si="15"/>
+        <v>21.200000000000003</v>
+      </c>
       <c r="L216" t="str">
-        <f t="shared" si="15"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150213, 2015, 'Südsudan, Republik', 36.0, 53.0, 114.0, 5.20, 21.20, 21.20);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150213, 2015, 'Südsudan, Republik', 36.0, 53.0, 114.0, 10.60, 21.20, 21.20);</v>
       </c>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.25">
@@ -21185,20 +21185,20 @@
         <v>140</v>
       </c>
       <c r="I217">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.6000000000000005</v>
       </c>
       <c r="J217">
-        <f t="shared" si="13"/>
-        <v>15.200000000000001</v>
-      </c>
-      <c r="K217">
         <f t="shared" si="14"/>
         <v>15.200000000000001</v>
       </c>
+      <c r="K217">
+        <f t="shared" si="15"/>
+        <v>15.200000000000001</v>
+      </c>
       <c r="L217" t="str">
-        <f t="shared" si="15"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150214, 2015, 'Syrien', 25.0, 38.0, 140.0, 7.80, 15.20, 15.20);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150214, 2015, 'Syrien', 25.0, 38.0, 140.0, 7.60, 15.20, 15.20);</v>
       </c>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.25">
@@ -21224,20 +21224,20 @@
         <v>67</v>
       </c>
       <c r="I218">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5.2</v>
       </c>
       <c r="J218">
-        <f t="shared" si="13"/>
-        <v>10.4</v>
-      </c>
-      <c r="K218">
         <f t="shared" si="14"/>
         <v>10.4</v>
       </c>
+      <c r="K218">
+        <f t="shared" si="15"/>
+        <v>10.4</v>
+      </c>
       <c r="L218" t="str">
-        <f t="shared" si="15"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150215, 2015, 'Tadschikistan', 17.0, 26.0, 67.0, 8.0, 10.40, 10.40);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150215, 2015, 'Tadschikistan', 17.0, 26.0, 67.0, 5.20, 10.40, 10.40);</v>
       </c>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.25">
@@ -21263,20 +21263,20 @@
         <v>110</v>
       </c>
       <c r="I219">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.8000000000000007</v>
       </c>
       <c r="J219">
-        <f t="shared" si="13"/>
-        <v>15.600000000000001</v>
-      </c>
-      <c r="K219">
         <f t="shared" si="14"/>
         <v>15.600000000000001</v>
       </c>
+      <c r="K219">
+        <f t="shared" si="15"/>
+        <v>15.600000000000001</v>
+      </c>
       <c r="L219" t="str">
-        <f t="shared" si="15"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150216, 2015, 'Taiwan', 26.0, 39.0, 110.0, 6.40, 15.60, 15.60);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150216, 2015, 'Taiwan', 26.0, 39.0, 110.0, 7.80, 15.60, 15.60);</v>
       </c>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.25">
@@ -21302,20 +21302,20 @@
         <v>141</v>
       </c>
       <c r="I220">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="J220">
-        <f t="shared" si="13"/>
-        <v>16</v>
-      </c>
-      <c r="K220">
         <f t="shared" si="14"/>
         <v>16</v>
       </c>
+      <c r="K220">
+        <f t="shared" si="15"/>
+        <v>16</v>
+      </c>
       <c r="L220" t="str">
-        <f t="shared" si="15"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150217, 2015, 'Tansania', 27.0, 40.0, 141.0, 7.0, 16.0, 16.0);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150217, 2015, 'Tansania', 27.0, 40.0, 141.0, 8.0, 16.0, 16.0);</v>
       </c>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.25">
@@ -21341,19 +21341,19 @@
         <v>120</v>
       </c>
       <c r="I221">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6.4</v>
       </c>
       <c r="J221">
-        <f t="shared" si="13"/>
-        <v>12.8</v>
-      </c>
-      <c r="K221">
         <f t="shared" si="14"/>
         <v>12.8</v>
       </c>
+      <c r="K221">
+        <f t="shared" si="15"/>
+        <v>12.8</v>
+      </c>
       <c r="L221" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150218, 2015, 'Thailand', 21.0, 32.0, 120.0, 6.40, 12.80, 12.80);</v>
       </c>
     </row>
@@ -21380,20 +21380,20 @@
         <v>108</v>
       </c>
       <c r="I222">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="J222">
-        <f t="shared" si="13"/>
-        <v>14</v>
-      </c>
-      <c r="K222">
         <f t="shared" si="14"/>
         <v>14</v>
       </c>
+      <c r="K222">
+        <f t="shared" si="15"/>
+        <v>14</v>
+      </c>
       <c r="L222" t="str">
-        <f t="shared" si="15"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150219, 2015, 'Togo', 24.0, 35.0, 108.0, 10.80, 14.0, 14.0);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150219, 2015, 'Togo', 24.0, 35.0, 108.0, 7.0, 14.0, 14.0);</v>
       </c>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.25">
@@ -21419,20 +21419,20 @@
         <v>36</v>
       </c>
       <c r="I223">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6.4</v>
       </c>
       <c r="J223">
-        <f t="shared" si="13"/>
-        <v>12.8</v>
-      </c>
-      <c r="K223">
         <f t="shared" si="14"/>
         <v>12.8</v>
       </c>
+      <c r="K223">
+        <f t="shared" si="15"/>
+        <v>12.8</v>
+      </c>
       <c r="L223" t="str">
-        <f t="shared" si="15"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150220, 2015, 'Tonga', 21.0, 32.0, 36.0, 9.40, 12.80, 12.80);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150220, 2015, 'Tonga', 21.0, 32.0, 36.0, 6.40, 12.80, 12.80);</v>
       </c>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.25">
@@ -21458,20 +21458,20 @@
         <v>164</v>
       </c>
       <c r="I224">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>10.8</v>
       </c>
       <c r="J224">
-        <f t="shared" si="13"/>
-        <v>21.6</v>
-      </c>
-      <c r="K224">
         <f t="shared" si="14"/>
         <v>21.6</v>
       </c>
+      <c r="K224">
+        <f t="shared" si="15"/>
+        <v>21.6</v>
+      </c>
       <c r="L224" t="str">
-        <f t="shared" si="15"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150221, 2015, 'Trinidad u. Tobago', 36.0, 54.0, 164.0, 4.80, 21.60, 21.60);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150221, 2015, 'Trinidad u. Tobago', 36.0, 54.0, 164.0, 10.80, 21.60, 21.60);</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.25">
@@ -21497,20 +21497,20 @@
         <v>151</v>
       </c>
       <c r="I225">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9.4</v>
       </c>
       <c r="J225">
-        <f t="shared" si="13"/>
-        <v>18.8</v>
-      </c>
-      <c r="K225">
         <f t="shared" si="14"/>
         <v>18.8</v>
       </c>
+      <c r="K225">
+        <f t="shared" si="15"/>
+        <v>18.8</v>
+      </c>
       <c r="L225" t="str">
-        <f t="shared" si="15"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150222, 2015, 'Tschad', 32.0, 47.0, 151.0, 6.60, 18.80, 18.80);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150222, 2015, 'Tschad', 32.0, 47.0, 151.0, 9.40, 18.80, 18.80);</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.25">
@@ -21536,20 +21536,20 @@
         <v>97</v>
       </c>
       <c r="I226">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4.8000000000000007</v>
       </c>
       <c r="J226">
-        <f t="shared" si="13"/>
-        <v>9.6000000000000014</v>
-      </c>
-      <c r="K226">
         <f t="shared" si="14"/>
         <v>9.6000000000000014</v>
       </c>
+      <c r="K226">
+        <f t="shared" si="15"/>
+        <v>9.6000000000000014</v>
+      </c>
       <c r="L226" t="str">
-        <f t="shared" si="15"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150223, 2015, 'Tschechische Rep.', 16.0, 24.0, 97.0, 6.60, 9.60, 9.60);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150223, 2015, 'Tschechische Rep.', 16.0, 24.0, 97.0, 4.80, 9.60, 9.60);</v>
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.25">
@@ -21575,20 +21575,20 @@
         <v>80</v>
       </c>
       <c r="I227">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6.6000000000000005</v>
       </c>
       <c r="J227">
-        <f t="shared" si="13"/>
-        <v>13.200000000000001</v>
-      </c>
-      <c r="K227">
         <f t="shared" si="14"/>
         <v>13.200000000000001</v>
       </c>
+      <c r="K227">
+        <f t="shared" si="15"/>
+        <v>13.200000000000001</v>
+      </c>
       <c r="L227" t="str">
-        <f t="shared" si="15"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150224, 2015, 'Tunesien', 22.0, 33.0, 80.0, 8.0, 13.20, 13.20);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150224, 2015, 'Tunesien', 22.0, 33.0, 80.0, 6.60, 13.20, 13.20);</v>
       </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.25">
@@ -21614,20 +21614,20 @@
         <v>108</v>
       </c>
       <c r="I228">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6.6000000000000005</v>
       </c>
       <c r="J228">
-        <f t="shared" si="13"/>
-        <v>13.200000000000001</v>
-      </c>
-      <c r="K228">
         <f t="shared" si="14"/>
         <v>13.200000000000001</v>
       </c>
+      <c r="K228">
+        <f t="shared" si="15"/>
+        <v>13.200000000000001</v>
+      </c>
       <c r="L228" t="str">
-        <f t="shared" si="15"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150225, 2015, 'Turkmenistan', 22.0, 33.0, 108.0, 8.40, 13.20, 13.20);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150225, 2015, 'Turkmenistan', 22.0, 33.0, 108.0, 6.60, 13.20, 13.20);</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.25">
@@ -21653,20 +21653,20 @@
         <v>78</v>
       </c>
       <c r="I229">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="J229">
-        <f t="shared" si="13"/>
-        <v>16</v>
-      </c>
-      <c r="K229">
         <f t="shared" si="14"/>
         <v>16</v>
       </c>
+      <c r="K229">
+        <f t="shared" si="15"/>
+        <v>16</v>
+      </c>
       <c r="L229" t="str">
-        <f t="shared" si="15"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150226, 2015, 'Türkei', 27.0, 40.0, 78.0, 7.0, 16.0, 16.0);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150226, 2015, 'Türkei', 27.0, 40.0, 78.0, 8.0, 16.0, 16.0);</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.25">
@@ -21692,19 +21692,19 @@
         <v>70</v>
       </c>
       <c r="I230">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8.4</v>
       </c>
       <c r="J230">
-        <f t="shared" si="13"/>
-        <v>16.8</v>
-      </c>
-      <c r="K230">
         <f t="shared" si="14"/>
         <v>16.8</v>
       </c>
+      <c r="K230">
+        <f t="shared" si="15"/>
+        <v>16.8</v>
+      </c>
       <c r="L230" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150227, 2015, 'Türkei-Ankara', 28.0, 42.0, 70.0, 8.40, 16.80, 16.80);</v>
       </c>
     </row>
@@ -21731,19 +21731,19 @@
         <v>92</v>
       </c>
       <c r="I231">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="J231">
-        <f t="shared" si="13"/>
-        <v>14</v>
-      </c>
-      <c r="K231">
         <f t="shared" si="14"/>
         <v>14</v>
       </c>
+      <c r="K231">
+        <f t="shared" si="15"/>
+        <v>14</v>
+      </c>
       <c r="L231" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150228, 2015, 'Türkei-Istanbul', 24.0, 35.0, 92.0, 7.0, 14.0, 14.0);</v>
       </c>
     </row>
@@ -21770,20 +21770,20 @@
         <v>80</v>
       </c>
       <c r="I232">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8.4</v>
       </c>
       <c r="J232">
-        <f t="shared" si="13"/>
-        <v>16.8</v>
-      </c>
-      <c r="K232">
         <f t="shared" si="14"/>
         <v>16.8</v>
       </c>
+      <c r="K232">
+        <f t="shared" si="15"/>
+        <v>16.8</v>
+      </c>
       <c r="L232" t="str">
-        <f t="shared" si="15"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150229, 2015, 'Türkei-Izmir', 28.0, 42.0, 80.0, 7.20, 16.80, 16.80);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150229, 2015, 'Türkei-Izmir', 28.0, 42.0, 80.0, 8.40, 16.80, 16.80);</v>
       </c>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.25">
@@ -21809,20 +21809,20 @@
         <v>129</v>
       </c>
       <c r="I233">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="J233">
-        <f t="shared" si="13"/>
-        <v>14</v>
-      </c>
-      <c r="K233">
         <f t="shared" si="14"/>
         <v>14</v>
       </c>
+      <c r="K233">
+        <f t="shared" si="15"/>
+        <v>14</v>
+      </c>
       <c r="L233" t="str">
-        <f t="shared" si="15"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150230, 2015, 'Uganda', 24.0, 35.0, 129.0, 6.0, 14.0, 14.0);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150230, 2015, 'Uganda', 24.0, 35.0, 129.0, 7.0, 14.0, 14.0);</v>
       </c>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.25">
@@ -21848,20 +21848,20 @@
         <v>85</v>
       </c>
       <c r="I234">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.2</v>
       </c>
       <c r="J234">
-        <f t="shared" si="13"/>
-        <v>14.4</v>
-      </c>
-      <c r="K234">
         <f t="shared" si="14"/>
         <v>14.4</v>
       </c>
+      <c r="K234">
+        <f t="shared" si="15"/>
+        <v>14.4</v>
+      </c>
       <c r="L234" t="str">
-        <f t="shared" si="15"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150231, 2015, 'Ukraine', 24.0, 36.0, 85.0, 6.0, 14.40, 14.40);</v>
+        <f t="shared" ref="L234:L262" si="16">"INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (" &amp; B234&amp;""&amp; TEXT(A234, "000#") &amp; ", " &amp; B234 &amp; ", '" &amp; C234 &amp; "', " &amp; SUBSTITUTE(TEXT(E234,"#,#0"),",",".") &amp; ", " &amp; SUBSTITUTE(TEXT(F234,"#,#0"),",",".")  &amp; ", " &amp; SUBSTITUTE(TEXT(G234,"#,#0"),",",".") &amp; ", " &amp; SUBSTITUTE(TEXT(I234,"#,#0"),",",".") &amp; ", " &amp; SUBSTITUTE(TEXT(J234,"#,#0"),",",".") &amp; ", " &amp; SUBSTITUTE(TEXT(K234,"#,#0"),",",".") &amp; ");"</f>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150231, 2015, 'Ukraine', 24.0, 36.0, 85.0, 7.20, 14.40, 14.40);</v>
       </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.25">
@@ -21887,20 +21887,20 @@
         <v>75</v>
       </c>
       <c r="I235">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="J235">
-        <f t="shared" si="13"/>
-        <v>12</v>
-      </c>
-      <c r="K235">
         <f t="shared" si="14"/>
         <v>12</v>
       </c>
+      <c r="K235">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
       <c r="L235" t="str">
-        <f t="shared" si="15"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150232, 2015, 'Ungarn', 20.0, 30.0, 75.0, 8.80, 12.0, 12.0);</v>
+        <f t="shared" si="16"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150232, 2015, 'Ungarn', 20.0, 30.0, 75.0, 6.0, 12.0, 12.0);</v>
       </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.25">
@@ -21926,20 +21926,20 @@
         <v>75</v>
       </c>
       <c r="I236">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="J236">
-        <f t="shared" si="13"/>
-        <v>12</v>
-      </c>
-      <c r="K236">
         <f t="shared" si="14"/>
         <v>12</v>
       </c>
+      <c r="K236">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
       <c r="L236" t="str">
-        <f t="shared" si="15"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150233, 2015, 'Ungarn-Budapest', 20.0, 30.0, 75.0, 9.60, 12.0, 12.0);</v>
+        <f t="shared" si="16"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150233, 2015, 'Ungarn-Budapest', 20.0, 30.0, 75.0, 6.0, 12.0, 12.0);</v>
       </c>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.25">
@@ -21965,20 +21965,20 @@
         <v>109</v>
       </c>
       <c r="I237">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8.8000000000000007</v>
       </c>
       <c r="J237">
-        <f t="shared" si="13"/>
-        <v>17.600000000000001</v>
-      </c>
-      <c r="K237">
         <f t="shared" si="14"/>
         <v>17.600000000000001</v>
       </c>
+      <c r="K237">
+        <f t="shared" si="15"/>
+        <v>17.600000000000001</v>
+      </c>
       <c r="L237" t="str">
-        <f t="shared" si="15"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150234, 2015, 'Uruguay', 29.0, 44.0, 109.0, 11.40, 17.60, 17.60);</v>
+        <f t="shared" si="16"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150234, 2015, 'Uruguay', 29.0, 44.0, 109.0, 8.80, 17.60, 17.60);</v>
       </c>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.25">
@@ -22004,19 +22004,19 @@
         <v>102</v>
       </c>
       <c r="I238">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9.6000000000000014</v>
       </c>
       <c r="J238">
-        <f t="shared" si="13"/>
-        <v>19.200000000000003</v>
-      </c>
-      <c r="K238">
         <f t="shared" si="14"/>
         <v>19.200000000000003</v>
       </c>
+      <c r="K238">
+        <f t="shared" si="15"/>
+        <v>19.200000000000003</v>
+      </c>
       <c r="L238" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150235, 2015, 'USA', 32.0, 48.0, 102.0, 9.60, 19.20, 19.20);</v>
       </c>
     </row>
@@ -22043,20 +22043,20 @@
         <v>122</v>
       </c>
       <c r="I239">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>11.4</v>
       </c>
       <c r="J239">
-        <f t="shared" si="13"/>
-        <v>22.8</v>
-      </c>
-      <c r="K239">
         <f t="shared" si="14"/>
         <v>22.8</v>
       </c>
+      <c r="K239">
+        <f t="shared" si="15"/>
+        <v>22.8</v>
+      </c>
       <c r="L239" t="str">
-        <f t="shared" si="15"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150236, 2015, 'USA-Atlanta', 38.0, 57.0, 122.0, 9.60, 22.80, 22.80);</v>
+        <f t="shared" si="16"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150236, 2015, 'USA-Atlanta', 38.0, 57.0, 122.0, 11.40, 22.80, 22.80);</v>
       </c>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.25">
@@ -22082,20 +22082,20 @@
         <v>206</v>
       </c>
       <c r="I240">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9.6000000000000014</v>
       </c>
       <c r="J240">
-        <f t="shared" si="13"/>
-        <v>19.200000000000003</v>
-      </c>
-      <c r="K240">
         <f t="shared" si="14"/>
         <v>19.200000000000003</v>
       </c>
+      <c r="K240">
+        <f t="shared" si="15"/>
+        <v>19.200000000000003</v>
+      </c>
       <c r="L240" t="str">
-        <f t="shared" si="15"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150237, 2015, 'USA-Boston', 32.0, 48.0, 206.0, 11.40, 19.20, 19.20);</v>
+        <f t="shared" si="16"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150237, 2015, 'USA-Boston', 32.0, 48.0, 206.0, 9.60, 19.20, 19.20);</v>
       </c>
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.25">
@@ -22121,19 +22121,19 @@
         <v>130</v>
       </c>
       <c r="I241">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9.6000000000000014</v>
       </c>
       <c r="J241">
-        <f t="shared" si="13"/>
-        <v>19.200000000000003</v>
-      </c>
-      <c r="K241">
         <f t="shared" si="14"/>
         <v>19.200000000000003</v>
       </c>
+      <c r="K241">
+        <f t="shared" si="15"/>
+        <v>19.200000000000003</v>
+      </c>
       <c r="L241" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150238, 2015, 'USA-Chicago', 32.0, 48.0, 130.0, 9.60, 19.20, 19.20);</v>
       </c>
     </row>
@@ -22160,19 +22160,19 @@
         <v>136</v>
       </c>
       <c r="I242">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>11.4</v>
       </c>
       <c r="J242">
-        <f t="shared" si="13"/>
-        <v>22.8</v>
-      </c>
-      <c r="K242">
         <f t="shared" si="14"/>
         <v>22.8</v>
       </c>
+      <c r="K242">
+        <f t="shared" si="15"/>
+        <v>22.8</v>
+      </c>
       <c r="L242" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150239, 2015, 'USA-Houston', 38.0, 57.0, 136.0, 11.40, 22.80, 22.80);</v>
       </c>
     </row>
@@ -22199,19 +22199,19 @@
         <v>153</v>
       </c>
       <c r="I243">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9.6000000000000014</v>
       </c>
       <c r="J243">
-        <f t="shared" si="13"/>
-        <v>19.200000000000003</v>
-      </c>
-      <c r="K243">
         <f t="shared" si="14"/>
         <v>19.200000000000003</v>
       </c>
+      <c r="K243">
+        <f t="shared" si="15"/>
+        <v>19.200000000000003</v>
+      </c>
       <c r="L243" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150240, 2015, 'USA-Los Angeles', 32.0, 48.0, 153.0, 9.60, 19.20, 19.20);</v>
       </c>
     </row>
@@ -22238,20 +22238,20 @@
         <v>102</v>
       </c>
       <c r="I244">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>11.4</v>
       </c>
       <c r="J244">
-        <f t="shared" si="13"/>
-        <v>22.8</v>
-      </c>
-      <c r="K244">
         <f t="shared" si="14"/>
         <v>22.8</v>
       </c>
+      <c r="K244">
+        <f t="shared" si="15"/>
+        <v>22.8</v>
+      </c>
       <c r="L244" t="str">
-        <f t="shared" si="15"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150241, 2015, 'USA-Miami', 38.0, 57.0, 102.0, 9.60, 22.80, 22.80);</v>
+        <f t="shared" si="16"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150241, 2015, 'USA-Miami', 38.0, 57.0, 102.0, 11.40, 22.80, 22.80);</v>
       </c>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.25">
@@ -22277,20 +22277,20 @@
         <v>215</v>
       </c>
       <c r="I245">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9.6000000000000014</v>
       </c>
       <c r="J245">
-        <f t="shared" si="13"/>
-        <v>19.200000000000003</v>
-      </c>
-      <c r="K245">
         <f t="shared" si="14"/>
         <v>19.200000000000003</v>
       </c>
+      <c r="K245">
+        <f t="shared" si="15"/>
+        <v>19.200000000000003</v>
+      </c>
       <c r="L245" t="str">
-        <f t="shared" si="15"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150242, 2015, 'USA-New York', 32.0, 48.0, 215.0, 11.40, 19.20, 19.20);</v>
+        <f t="shared" si="16"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150242, 2015, 'USA-New York', 32.0, 48.0, 215.0, 9.60, 19.20, 19.20);</v>
       </c>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.25">
@@ -22316,20 +22316,20 @@
         <v>110</v>
       </c>
       <c r="I246">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9.6000000000000014</v>
       </c>
       <c r="J246">
-        <f t="shared" si="13"/>
-        <v>19.200000000000003</v>
-      </c>
-      <c r="K246">
         <f t="shared" si="14"/>
         <v>19.200000000000003</v>
       </c>
+      <c r="K246">
+        <f t="shared" si="15"/>
+        <v>19.200000000000003</v>
+      </c>
       <c r="L246" t="str">
-        <f t="shared" si="15"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150243, 2015, 'USA-San Francisco', 32.0, 48.0, 110.0, 6.80, 19.20, 19.20);</v>
+        <f t="shared" si="16"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150243, 2015, 'USA-San Francisco', 32.0, 48.0, 110.0, 9.60, 19.20, 19.20);</v>
       </c>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.25">
@@ -22355,20 +22355,20 @@
         <v>205</v>
       </c>
       <c r="I247">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>11.4</v>
       </c>
       <c r="J247">
-        <f t="shared" si="13"/>
-        <v>22.8</v>
-      </c>
-      <c r="K247">
         <f t="shared" si="14"/>
         <v>22.8</v>
       </c>
+      <c r="K247">
+        <f t="shared" si="15"/>
+        <v>22.8</v>
+      </c>
       <c r="L247" t="str">
-        <f t="shared" si="15"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150244, 2015, 'USA-Washington DC', 38.0, 57.0, 205.0, 10.40, 22.80, 22.80);</v>
+        <f t="shared" si="16"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150244, 2015, 'USA-Washington DC', 38.0, 57.0, 205.0, 11.40, 22.80, 22.80);</v>
       </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.25">
@@ -22394,20 +22394,20 @@
         <v>123</v>
       </c>
       <c r="I248">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6.8000000000000007</v>
       </c>
       <c r="J248">
-        <f t="shared" si="13"/>
-        <v>13.600000000000001</v>
-      </c>
-      <c r="K248">
         <f t="shared" si="14"/>
         <v>13.600000000000001</v>
       </c>
+      <c r="K248">
+        <f t="shared" si="15"/>
+        <v>13.600000000000001</v>
+      </c>
       <c r="L248" t="str">
-        <f t="shared" si="15"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150245, 2015, 'Usbekistan', 23.0, 34.0, 123.0, 9.60, 13.60, 13.60);</v>
+        <f t="shared" si="16"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150245, 2015, 'Usbekistan', 23.0, 34.0, 123.0, 6.80, 13.60, 13.60);</v>
       </c>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.25">
@@ -22433,20 +22433,20 @@
         <v>160</v>
       </c>
       <c r="I249">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>10.4</v>
       </c>
       <c r="J249">
-        <f t="shared" si="13"/>
-        <v>20.8</v>
-      </c>
-      <c r="K249">
         <f t="shared" si="14"/>
         <v>20.8</v>
       </c>
+      <c r="K249">
+        <f t="shared" si="15"/>
+        <v>20.8</v>
+      </c>
       <c r="L249" t="str">
-        <f t="shared" si="15"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150246, 2015, 'Vatikanstaat', 35.0, 52.0, 160.0, 9.0, 20.80, 20.80);</v>
+        <f t="shared" si="16"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150246, 2015, 'Vatikanstaat', 35.0, 52.0, 160.0, 10.40, 20.80, 20.80);</v>
       </c>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.25">
@@ -22472,20 +22472,20 @@
         <v>207</v>
       </c>
       <c r="I250">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9.6000000000000014</v>
       </c>
       <c r="J250">
-        <f t="shared" si="13"/>
-        <v>19.200000000000003</v>
-      </c>
-      <c r="K250">
         <f t="shared" si="14"/>
         <v>19.200000000000003</v>
       </c>
+      <c r="K250">
+        <f t="shared" si="15"/>
+        <v>19.200000000000003</v>
+      </c>
       <c r="L250" t="str">
-        <f t="shared" si="15"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150247, 2015, 'Venezuela', 32.0, 48.0, 207.0, 9.0, 19.20, 19.20);</v>
+        <f t="shared" si="16"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150247, 2015, 'Venezuela', 32.0, 48.0, 207.0, 9.60, 19.20, 19.20);</v>
       </c>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.25">
@@ -22511,20 +22511,20 @@
         <v>155</v>
       </c>
       <c r="I251">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="J251">
-        <f t="shared" si="13"/>
-        <v>18</v>
-      </c>
-      <c r="K251">
         <f t="shared" si="14"/>
         <v>18</v>
       </c>
+      <c r="K251">
+        <f t="shared" si="15"/>
+        <v>18</v>
+      </c>
       <c r="L251" t="str">
-        <f t="shared" si="15"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150248, 2015, 'Ver. Arab. Emirate', 30.0, 45.0, 155.0, 7.60, 18.0, 18.0);</v>
+        <f t="shared" si="16"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150248, 2015, 'Ver. Arab. Emirate', 30.0, 45.0, 155.0, 9.0, 18.0, 18.0);</v>
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.25">
@@ -22550,20 +22550,20 @@
         <v>155</v>
       </c>
       <c r="I252">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="J252">
-        <f t="shared" si="13"/>
-        <v>18</v>
-      </c>
-      <c r="K252">
         <f t="shared" si="14"/>
         <v>18</v>
       </c>
+      <c r="K252">
+        <f t="shared" si="15"/>
+        <v>18</v>
+      </c>
       <c r="L252" t="str">
-        <f t="shared" si="15"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150249, 2015, 'Ver. Arab. Emirate-Dubai', 30.0, 45.0, 155.0, 7.20, 18.0, 18.0);</v>
+        <f t="shared" si="16"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150249, 2015, 'Ver. Arab. Emirate-Dubai', 30.0, 45.0, 155.0, 9.0, 18.0, 18.0);</v>
       </c>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.25">
@@ -22589,20 +22589,20 @@
         <v>86</v>
       </c>
       <c r="I253">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.6000000000000005</v>
       </c>
       <c r="J253">
-        <f t="shared" si="13"/>
-        <v>15.200000000000001</v>
-      </c>
-      <c r="K253">
         <f t="shared" si="14"/>
         <v>15.200000000000001</v>
       </c>
+      <c r="K253">
+        <f t="shared" si="15"/>
+        <v>15.200000000000001</v>
+      </c>
       <c r="L253" t="str">
-        <f t="shared" si="15"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150250, 2015, 'Vietnam', 25.0, 38.0, 86.0, 5.40, 15.20, 15.20);</v>
+        <f t="shared" si="16"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150250, 2015, 'Vietnam', 25.0, 38.0, 86.0, 7.60, 15.20, 15.20);</v>
       </c>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.25">
@@ -22628,20 +22628,20 @@
         <v>97</v>
       </c>
       <c r="I254">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.2</v>
       </c>
       <c r="J254">
-        <f t="shared" si="13"/>
-        <v>14.4</v>
-      </c>
-      <c r="K254">
         <f t="shared" si="14"/>
         <v>14.4</v>
       </c>
+      <c r="K254">
+        <f t="shared" si="15"/>
+        <v>14.4</v>
+      </c>
       <c r="L254" t="str">
-        <f t="shared" si="15"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150251, 2015, 'Vietnam - Ho-Chi-Minh-Stadt', 24.0, 36.0, 97.0, 5.80, 14.40, 14.40);</v>
+        <f t="shared" si="16"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150251, 2015, 'Vietnam - Ho-Chi-Minh-Stadt', 24.0, 36.0, 97.0, 7.20, 14.40, 14.40);</v>
       </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.25">
@@ -22667,20 +22667,20 @@
         <v>109</v>
       </c>
       <c r="I255">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5.4</v>
       </c>
       <c r="J255">
-        <f t="shared" si="13"/>
-        <v>10.8</v>
-      </c>
-      <c r="K255">
         <f t="shared" si="14"/>
         <v>10.8</v>
       </c>
+      <c r="K255">
+        <f t="shared" si="15"/>
+        <v>10.8</v>
+      </c>
       <c r="L255" t="str">
-        <f t="shared" si="15"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150252, 2015, 'Weissrussland', 18.0, 27.0, 109.0, 7.80, 10.80, 10.80);</v>
+        <f t="shared" si="16"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150252, 2015, 'Weissrussland', 18.0, 27.0, 109.0, 5.40, 10.80, 10.80);</v>
       </c>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.25">
@@ -22706,20 +22706,20 @@
         <v>52</v>
       </c>
       <c r="I256">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5.8000000000000007</v>
       </c>
       <c r="J256">
-        <f t="shared" si="13"/>
-        <v>11.600000000000001</v>
-      </c>
-      <c r="K256">
         <f t="shared" si="14"/>
         <v>11.600000000000001</v>
       </c>
+      <c r="K256">
+        <f t="shared" si="15"/>
+        <v>11.600000000000001</v>
+      </c>
       <c r="L256" t="str">
-        <f t="shared" si="15"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150253, 2015, 'Zentralafrik. Rep.', 20.0, 29.0, 52.0, 8.0, 11.60, 11.60);</v>
+        <f t="shared" si="16"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150253, 2015, 'Zentralafrik. Rep.', 20.0, 29.0, 52.0, 5.80, 11.60, 11.60);</v>
       </c>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.25">
@@ -22745,20 +22745,20 @@
         <v>90</v>
       </c>
       <c r="I257">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.8000000000000007</v>
       </c>
       <c r="J257">
-        <f t="shared" si="13"/>
-        <v>15.600000000000001</v>
-      </c>
-      <c r="K257">
         <f t="shared" si="14"/>
         <v>15.600000000000001</v>
       </c>
+      <c r="K257">
+        <f t="shared" si="15"/>
+        <v>15.600000000000001</v>
+      </c>
       <c r="L257" t="str">
-        <f t="shared" si="15"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150254, 2015, 'Zypern', 26.0, 39.0, 90.0, 10.0, 15.60, 15.60);</v>
+        <f t="shared" si="16"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150254, 2015, 'Zypern', 26.0, 39.0, 90.0, 7.80, 15.60, 15.60);</v>
       </c>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.25">
@@ -22784,20 +22784,20 @@
         <v>113</v>
       </c>
       <c r="I258">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="J258">
-        <f t="shared" si="13"/>
-        <v>16</v>
-      </c>
-      <c r="K258">
         <f t="shared" si="14"/>
         <v>16</v>
       </c>
+      <c r="K258">
+        <f t="shared" si="15"/>
+        <v>16</v>
+      </c>
       <c r="L258" t="str">
-        <f t="shared" si="15"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150255, 2015, 'Ägypten', 27.0, 40.0, 113.0, 5.40, 16.0, 16.0);</v>
+        <f t="shared" si="16"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150255, 2015, 'Ägypten', 27.0, 40.0, 113.0, 8.0, 16.0, 16.0);</v>
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.25">
@@ -22823,20 +22823,20 @@
         <v>226</v>
       </c>
       <c r="I259">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="J259">
-        <f t="shared" si="13"/>
-        <v>20</v>
-      </c>
-      <c r="K259">
         <f t="shared" si="14"/>
         <v>20</v>
       </c>
+      <c r="K259">
+        <f t="shared" si="15"/>
+        <v>20</v>
+      </c>
       <c r="L259" t="str">
-        <f t="shared" si="15"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150256, 2015, 'Äquatorialguinea', 33.0, 50.0, 226.0, 7.20, 20.0, 20.0);</v>
+        <f t="shared" si="16"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150256, 2015, 'Äquatorialguinea', 33.0, 50.0, 226.0, 10.0, 20.0, 20.0);</v>
       </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.25">
@@ -22862,20 +22862,20 @@
         <v>86</v>
       </c>
       <c r="I260">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5.4</v>
       </c>
       <c r="J260">
-        <f t="shared" si="13"/>
-        <v>10.8</v>
-      </c>
-      <c r="K260">
         <f t="shared" si="14"/>
         <v>10.8</v>
       </c>
+      <c r="K260">
+        <f t="shared" si="15"/>
+        <v>10.8</v>
+      </c>
       <c r="L260" t="str">
-        <f t="shared" si="15"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150257, 2015, 'Äthiopien', 18.0, 27.0, 86.0, 7.20, 10.80, 10.80);</v>
+        <f t="shared" si="16"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150257, 2015, 'Äthiopien', 18.0, 27.0, 86.0, 5.40, 10.80, 10.80);</v>
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.25">
@@ -22901,20 +22901,20 @@
         <v>104</v>
       </c>
       <c r="I261">
-        <f t="shared" ref="I261:I262" si="16">F261*0.2</f>
+        <f t="shared" ref="I261:I262" si="17">F261*0.2</f>
         <v>7.2</v>
       </c>
       <c r="J261">
-        <f t="shared" ref="J261:J262" si="17">F261*0.4</f>
+        <f t="shared" ref="J261:J262" si="18">F261*0.4</f>
         <v>14.4</v>
       </c>
       <c r="K261">
-        <f t="shared" ref="K261:K262" si="18">F261*0.4</f>
+        <f t="shared" ref="K261:K262" si="19">F261*0.4</f>
         <v>14.4</v>
       </c>
       <c r="L261" t="str">
-        <f t="shared" ref="L261:L262" si="19">"INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (" &amp; B261&amp;""&amp; TEXT(A261, "000#") &amp; ", " &amp; B261 &amp; ", '" &amp; C261 &amp; "', " &amp; SUBSTITUTE(TEXT(E261,"#,#0"),",",".") &amp; ", " &amp; SUBSTITUTE(TEXT(F261,"#,#0"),",",".")  &amp; ", " &amp; SUBSTITUTE(TEXT(G261,"#,#0"),",",".") &amp; ", " &amp; SUBSTITUTE(TEXT(I263,"#,#0"),",",".") &amp; ", " &amp; SUBSTITUTE(TEXT(J261,"#,#0"),",",".") &amp; ", " &amp; SUBSTITUTE(TEXT(K261,"#,#0"),",",".") &amp; ");"</f>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150258, 2015, 'Österreich', 24.0, 36.0, 104.0, .0, 14.40, 14.40);</v>
+        <f t="shared" si="16"/>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150258, 2015, 'Österreich', 24.0, 36.0, 104.0, 7.20, 14.40, 14.40);</v>
       </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.25">
@@ -22940,20 +22940,20 @@
         <v>104</v>
       </c>
       <c r="I262">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>7.2</v>
       </c>
       <c r="J262">
-        <f t="shared" si="17"/>
-        <v>14.4</v>
-      </c>
-      <c r="K262">
         <f t="shared" si="18"/>
         <v>14.4</v>
       </c>
+      <c r="K262">
+        <f t="shared" si="19"/>
+        <v>14.4</v>
+      </c>
       <c r="L262" t="str">
-        <f t="shared" si="19"/>
-        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150259, 2015, 'Österreich-Wien', 24.0, 36.0, 104.0, .0, 14.40, 14.40);</v>
+        <f>"INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (" &amp; B262&amp;""&amp; TEXT(A262, "000#") &amp; ", " &amp; B262 &amp; ", '" &amp; C262 &amp; "', " &amp; SUBSTITUTE(TEXT(E262,"#,#0"),",",".") &amp; ", " &amp; SUBSTITUTE(TEXT(F262,"#,#0"),",",".")  &amp; ", " &amp; SUBSTITUTE(TEXT(G262,"#,#0"),",",".") &amp; ", " &amp; SUBSTITUTE(TEXT(I262,"#,#0"),",",".") &amp; ", " &amp; SUBSTITUTE(TEXT(J262,"#,#0"),",",".") &amp; ", " &amp; SUBSTITUTE(TEXT(K262,"#,#0"),",",".") &amp; ");"</f>
+        <v>INSERT INTO APP.TRAVELEXPENSESRATE (ID, TRAVELYEAR, COUNTRY, RATEFROM8TO24, RATE24H, ACCOMMODATIONEXPENSES, BREAKFAST, LUNCH, DINNER) VALUES (20150259, 2015, 'Österreich-Wien', 24.0, 36.0, 104.0, 7.20, 14.40, 14.40);</v>
       </c>
     </row>
   </sheetData>
